--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2586567.533876994</v>
+        <v>2585596.378898556</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2255694.647750879</v>
+        <v>2255694.647750881</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>69.11283335341149</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>108.7290204564476</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>70.99069090147016</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>144.7467681673239</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>357.5058497656033</v>
+        <v>201.914797929373</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>55.97993358026019</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>214.017543089518</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>170.7393256988278</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>265.9058751320873</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>63.60381974109103</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>172.2449836111995</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>307.2507594525536</v>
       </c>
       <c r="F11" t="n">
-        <v>211.7804569915521</v>
+        <v>321.4185639032546</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>317.5918896476147</v>
       </c>
       <c r="H11" t="n">
         <v>228.1802891394733</v>
@@ -1429,13 +1429,13 @@
         <v>161.8776874375044</v>
       </c>
       <c r="V11" t="n">
-        <v>247.3788110214494</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>275.9821144993281</v>
       </c>
       <c r="X11" t="n">
-        <v>294.2511488342063</v>
+        <v>114.3999632963386</v>
       </c>
       <c r="Y11" t="n">
         <v>301.2188718065375</v>
@@ -1615,7 +1615,7 @@
         <v>290.2797873134316</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>307.2507594525536</v>
       </c>
       <c r="F14" t="n">
         <v>321.4185639032546</v>
@@ -1624,7 +1624,7 @@
         <v>317.5918896476147</v>
       </c>
       <c r="H14" t="n">
-        <v>228.1802891394733</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>129.379487407315</v>
+        <v>41.40230434802795</v>
       </c>
       <c r="U14" t="n">
         <v>161.8776874375044</v>
@@ -1669,7 +1669,7 @@
         <v>247.3788110214494</v>
       </c>
       <c r="W14" t="n">
-        <v>267.0754017531219</v>
+        <v>275.9821144993281</v>
       </c>
       <c r="X14" t="n">
         <v>294.2511488342063</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.04900832232033</v>
+        <v>92.0490083223209</v>
       </c>
       <c r="C16" t="n">
         <v>77.19613657260331</v>
@@ -1782,7 +1782,7 @@
         <v>75.20523430849192</v>
       </c>
       <c r="H16" t="n">
-        <v>62.08916992943674</v>
+        <v>62.08916992943611</v>
       </c>
       <c r="I16" t="n">
         <v>38.67176851601023</v>
@@ -1852,7 +1852,7 @@
         <v>290.2797873134316</v>
       </c>
       <c r="E17" t="n">
-        <v>307.2507594525536</v>
+        <v>174.2719117274426</v>
       </c>
       <c r="F17" t="n">
         <v>321.4185639032546</v>
@@ -1903,13 +1903,13 @@
         <v>161.8776874375044</v>
       </c>
       <c r="V17" t="n">
-        <v>96.13092896146058</v>
+        <v>247.3788110214494</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.9821144993281</v>
       </c>
       <c r="X17" t="n">
-        <v>294.2511488342063</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>301.2188718065375</v>
@@ -2007,7 +2007,7 @@
         <v>77.19613657260331</v>
       </c>
       <c r="D19" t="n">
-        <v>62.76985178444303</v>
+        <v>62.7698517844424</v>
       </c>
       <c r="E19" t="n">
         <v>62.69629383732214</v>
@@ -2016,7 +2016,7 @@
         <v>64.44574525708941</v>
       </c>
       <c r="G19" t="n">
-        <v>75.20523430849131</v>
+        <v>75.20523430849192</v>
       </c>
       <c r="H19" t="n">
         <v>62.08916992943674</v>
@@ -2086,22 +2086,22 @@
         <v>297.9368163000313</v>
       </c>
       <c r="D20" t="n">
-        <v>290.2797873134316</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>307.2507594525536</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>321.4185639032546</v>
       </c>
       <c r="G20" t="n">
-        <v>252.3264634742678</v>
+        <v>317.5918896476147</v>
       </c>
       <c r="H20" t="n">
-        <v>228.1802891394733</v>
+        <v>91.23007989358766</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>40.54600648271571</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.52651787784153</v>
+        <v>70.52651787784154</v>
       </c>
       <c r="T20" t="n">
         <v>129.379487407315</v>
@@ -2259,7 +2259,7 @@
         <v>62.08916992943674</v>
       </c>
       <c r="I22" t="n">
-        <v>38.67176851600939</v>
+        <v>38.67176851601027</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.68650823791155</v>
+        <v>28.68650823791165</v>
       </c>
       <c r="S22" t="n">
         <v>108.4467038364168</v>
@@ -2295,7 +2295,7 @@
         <v>141.8013495916979</v>
       </c>
       <c r="U22" t="n">
-        <v>191.2742364473058</v>
+        <v>191.2742364473056</v>
       </c>
       <c r="V22" t="n">
         <v>172.0126215453166</v>
@@ -2323,7 +2323,7 @@
         <v>297.9368163000313</v>
       </c>
       <c r="D23" t="n">
-        <v>180.6416804017286</v>
+        <v>290.2797873134316</v>
       </c>
       <c r="E23" t="n">
         <v>307.2507594525536</v>
@@ -2332,10 +2332,10 @@
         <v>321.4185639032546</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>317.5918896476147</v>
       </c>
       <c r="H23" t="n">
-        <v>228.1802891394733</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>40.54600648271571</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.52651787784154</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>129.379487407315</v>
@@ -2383,7 +2383,7 @@
         <v>275.9821144993281</v>
       </c>
       <c r="X23" t="n">
-        <v>294.2511488342063</v>
+        <v>165.7279592922035</v>
       </c>
       <c r="Y23" t="n">
         <v>301.2188718065375</v>
@@ -2417,7 +2417,7 @@
         <v>86.73074934955015</v>
       </c>
       <c r="I24" t="n">
-        <v>46.45605667347491</v>
+        <v>46.45605667347492</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>62.08916992943674</v>
       </c>
       <c r="I25" t="n">
-        <v>38.67176851601025</v>
+        <v>38.67176851601024</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.68650823791165</v>
+        <v>28.68650823791155</v>
       </c>
       <c r="S25" t="n">
         <v>108.4467038364168</v>
@@ -2532,7 +2532,7 @@
         <v>141.8013495916979</v>
       </c>
       <c r="U25" t="n">
-        <v>191.2742364473054</v>
+        <v>191.2742364473058</v>
       </c>
       <c r="V25" t="n">
         <v>172.0126215453166</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>334.4847522546502</v>
       </c>
       <c r="C26" t="n">
-        <v>327.2387004824654</v>
+        <v>327.238700482466</v>
       </c>
       <c r="D26" t="n">
-        <v>319.5816714958657</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>336.5526436349882</v>
       </c>
       <c r="F26" t="n">
-        <v>154.999584679496</v>
+        <v>233.8930183349664</v>
       </c>
       <c r="G26" t="n">
-        <v>346.8937738300488</v>
+        <v>346.8937738300493</v>
       </c>
       <c r="H26" t="n">
-        <v>257.4821733219075</v>
+        <v>257.482173321908</v>
       </c>
       <c r="I26" t="n">
-        <v>69.84789066514986</v>
+        <v>69.84789066515035</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>99.82840206027569</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>158.6813715897491</v>
+        <v>158.6813715897496</v>
       </c>
       <c r="U26" t="n">
-        <v>191.1795716199386</v>
+        <v>191.1795716199391</v>
       </c>
       <c r="V26" t="n">
-        <v>276.6806952038836</v>
+        <v>276.6806952038841</v>
       </c>
       <c r="W26" t="n">
-        <v>305.2839986817622</v>
+        <v>305.2839986817627</v>
       </c>
       <c r="X26" t="n">
-        <v>323.5530330166405</v>
+        <v>323.553033016641</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.5207559889717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>86.73074934955015</v>
       </c>
       <c r="I27" t="n">
-        <v>46.45605667347491</v>
+        <v>46.45605667347492</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>121.3508925047551</v>
+        <v>121.3508925047555</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>91.99817801975678</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>93.74762943952405</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>104.5071184909266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>91.39105411187137</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.9883924203457</v>
+        <v>57.98839242034619</v>
       </c>
       <c r="S28" t="n">
-        <v>137.748588018851</v>
+        <v>137.7485880188514</v>
       </c>
       <c r="T28" t="n">
-        <v>171.103233774132</v>
+        <v>171.1032337741325</v>
       </c>
       <c r="U28" t="n">
-        <v>220.57612062974</v>
+        <v>208.3457274097655</v>
       </c>
       <c r="V28" t="n">
-        <v>150.9215347936101</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>218.4920520485009</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>169.7344729952135</v>
+        <v>169.734472995214</v>
       </c>
       <c r="Y28" t="n">
-        <v>158.8758945718899</v>
+        <v>158.8758945718903</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>334.4847522546497</v>
       </c>
       <c r="C29" t="n">
-        <v>327.2387004824654</v>
+        <v>327.2387004824655</v>
       </c>
       <c r="D29" t="n">
         <v>319.5816714958657</v>
@@ -2806,13 +2806,13 @@
         <v>350.7204480856888</v>
       </c>
       <c r="G29" t="n">
-        <v>72.10244011077576</v>
+        <v>346.8937738300489</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>257.4821733219075</v>
       </c>
       <c r="I29" t="n">
-        <v>69.84789066514986</v>
+        <v>69.8478906651499</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>99.82840206027569</v>
+        <v>6.214408270029985</v>
       </c>
       <c r="T29" t="n">
-        <v>158.6813715897491</v>
+        <v>158.6813715897492</v>
       </c>
       <c r="U29" t="n">
-        <v>191.1795716199386</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>276.6806952038836</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>305.2839986817622</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>323.5530330166405</v>
@@ -2891,7 +2891,7 @@
         <v>86.73074934955015</v>
       </c>
       <c r="I30" t="n">
-        <v>46.45605667347491</v>
+        <v>46.45605667347492</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>121.3508925047551</v>
       </c>
       <c r="C31" t="n">
-        <v>106.4980207550375</v>
+        <v>36.65171773035904</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>92.07173596687723</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>93.74762943952361</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>67.97365269844443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.9883924203457</v>
+        <v>57.98839242034575</v>
       </c>
       <c r="S31" t="n">
         <v>137.748588018851</v>
       </c>
       <c r="T31" t="n">
-        <v>171.103233774132</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>220.57612062974</v>
@@ -3012,13 +3012,13 @@
         <v>201.3145057277508</v>
       </c>
       <c r="W31" t="n">
-        <v>218.4920520485009</v>
+        <v>218.492052048501</v>
       </c>
       <c r="X31" t="n">
-        <v>169.7344729952135</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>123.3357953874668</v>
+        <v>158.8758945718899</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>305.1828680722155</v>
       </c>
       <c r="C32" t="n">
-        <v>188.2987093883298</v>
+        <v>297.9368163000313</v>
       </c>
       <c r="D32" t="n">
         <v>290.2797873134315</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>228.1802891394733</v>
+        <v>118.5421822277709</v>
       </c>
       <c r="I32" t="n">
-        <v>40.54600648271567</v>
+        <v>40.5460064827157</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.52651787784148</v>
+        <v>70.52651787784153</v>
       </c>
       <c r="T32" t="n">
-        <v>129.3794874073149</v>
+        <v>129.379487407315</v>
       </c>
       <c r="U32" t="n">
         <v>161.8776874375044</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>92.04900832232086</v>
+        <v>92.04900832232089</v>
       </c>
       <c r="C34" t="n">
-        <v>77.19613657260327</v>
+        <v>77.19613657260329</v>
       </c>
       <c r="D34" t="n">
-        <v>62.76985178444347</v>
+        <v>62.76985178444302</v>
       </c>
       <c r="E34" t="n">
-        <v>62.6962938373221</v>
+        <v>62.69629383732213</v>
       </c>
       <c r="F34" t="n">
-        <v>64.44574525708937</v>
+        <v>64.4457452570894</v>
       </c>
       <c r="G34" t="n">
-        <v>75.20523430849188</v>
+        <v>75.20523430849191</v>
       </c>
       <c r="H34" t="n">
-        <v>62.08916992943669</v>
+        <v>62.08916992943672</v>
       </c>
       <c r="I34" t="n">
-        <v>38.6717685160102</v>
+        <v>38.67176851601023</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.68650823791151</v>
+        <v>28.68650823791154</v>
       </c>
       <c r="S34" t="n">
         <v>108.4467038364168</v>
       </c>
       <c r="T34" t="n">
-        <v>141.8013495916978</v>
+        <v>141.8013495916979</v>
       </c>
       <c r="U34" t="n">
-        <v>191.2742364473058</v>
+        <v>191.2742364473056</v>
       </c>
       <c r="V34" t="n">
         <v>172.0126215453166</v>
@@ -3274,19 +3274,19 @@
         <v>290.2797873134315</v>
       </c>
       <c r="E35" t="n">
-        <v>307.2507594525535</v>
+        <v>251.7661525776155</v>
       </c>
       <c r="F35" t="n">
         <v>321.4185639032546</v>
       </c>
       <c r="G35" t="n">
-        <v>159.0881887104866</v>
+        <v>317.5918896476147</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>228.1802891394733</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>40.5460064827157</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.52651787784148</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>129.3794874073149</v>
+        <v>129.379487407315</v>
       </c>
       <c r="U35" t="n">
         <v>161.8776874375044</v>
@@ -3334,7 +3334,7 @@
         <v>294.2511488342063</v>
       </c>
       <c r="Y35" t="n">
-        <v>301.2188718065375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.04900832232086</v>
+        <v>92.04900832232022</v>
       </c>
       <c r="C37" t="n">
-        <v>77.19613657260327</v>
+        <v>77.19613657260329</v>
       </c>
       <c r="D37" t="n">
-        <v>62.76985178444299</v>
+        <v>62.76985178444302</v>
       </c>
       <c r="E37" t="n">
-        <v>62.6962938373221</v>
+        <v>62.69629383732213</v>
       </c>
       <c r="F37" t="n">
-        <v>64.44574525708937</v>
+        <v>64.4457452570894</v>
       </c>
       <c r="G37" t="n">
-        <v>75.20523430849188</v>
+        <v>75.20523430849191</v>
       </c>
       <c r="H37" t="n">
-        <v>62.08916992943722</v>
+        <v>62.08916992943672</v>
       </c>
       <c r="I37" t="n">
-        <v>38.6717685160102</v>
+        <v>38.67176851601022</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.68650823791151</v>
+        <v>28.68650823791154</v>
       </c>
       <c r="S37" t="n">
         <v>108.4467038364168</v>
       </c>
       <c r="T37" t="n">
-        <v>141.8013495916978</v>
+        <v>141.8013495916979</v>
       </c>
       <c r="U37" t="n">
         <v>191.2742364473058</v>
@@ -3505,16 +3505,16 @@
         <v>305.1828680722155</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>297.9368163000313</v>
       </c>
       <c r="D38" t="n">
-        <v>160.9866070541458</v>
+        <v>290.2797873134315</v>
       </c>
       <c r="E38" t="n">
         <v>307.2507594525535</v>
       </c>
       <c r="F38" t="n">
-        <v>321.4185639032546</v>
+        <v>317.8192035854587</v>
       </c>
       <c r="G38" t="n">
         <v>317.5918896476147</v>
@@ -3523,7 +3523,7 @@
         <v>228.1802891394733</v>
       </c>
       <c r="I38" t="n">
-        <v>40.54600648271567</v>
+        <v>40.5460064827157</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70.52651787784148</v>
+        <v>70.52651787784153</v>
       </c>
       <c r="T38" t="n">
-        <v>129.3794874073149</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>161.8776874375044</v>
@@ -3568,7 +3568,7 @@
         <v>275.982114499328</v>
       </c>
       <c r="X38" t="n">
-        <v>294.2511488342063</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>301.2188718065375</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.04900832232086</v>
+        <v>92.04900832232089</v>
       </c>
       <c r="C40" t="n">
-        <v>77.19613657260327</v>
+        <v>77.19613657260329</v>
       </c>
       <c r="D40" t="n">
-        <v>62.76985178444299</v>
+        <v>62.76985178444302</v>
       </c>
       <c r="E40" t="n">
-        <v>62.6962938373221</v>
+        <v>62.69629383732213</v>
       </c>
       <c r="F40" t="n">
-        <v>64.44574525708937</v>
+        <v>64.4457452570894</v>
       </c>
       <c r="G40" t="n">
-        <v>75.20523430849188</v>
+        <v>75.20523430849191</v>
       </c>
       <c r="H40" t="n">
-        <v>62.08916992943669</v>
+        <v>62.08916992943672</v>
       </c>
       <c r="I40" t="n">
-        <v>38.6717685160102</v>
+        <v>38.67176851601022</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.68650823791151</v>
+        <v>28.68650823791154</v>
       </c>
       <c r="S40" t="n">
         <v>108.4467038364168</v>
       </c>
       <c r="T40" t="n">
-        <v>141.8013495916978</v>
+        <v>141.8013495916979</v>
       </c>
       <c r="U40" t="n">
-        <v>191.2742364473065</v>
+        <v>191.2742364473058</v>
       </c>
       <c r="V40" t="n">
         <v>172.0126215453166</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>367.1879140718482</v>
       </c>
       <c r="C41" t="n">
-        <v>359.9418622996645</v>
+        <v>131.5770618119534</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>352.2848333130643</v>
       </c>
       <c r="E41" t="n">
-        <v>245.4909348595289</v>
+        <v>369.2558054521862</v>
       </c>
       <c r="F41" t="n">
-        <v>383.4236099028878</v>
+        <v>383.4236099028873</v>
       </c>
       <c r="G41" t="n">
-        <v>379.5969356472478</v>
+        <v>379.5969356472474</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>102.5510524823489</v>
+        <v>102.5510524823484</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.5315638774747</v>
+        <v>132.5315638774743</v>
       </c>
       <c r="T41" t="n">
-        <v>191.3845334069481</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>223.8827334371371</v>
       </c>
       <c r="V41" t="n">
-        <v>309.3838570210826</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.9871604989612</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>356.2561948338395</v>
+        <v>356.2561948338391</v>
       </c>
       <c r="Y41" t="n">
-        <v>363.2239178061707</v>
+        <v>363.2239178061702</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>139.2011825722365</v>
+        <v>83.86357727754888</v>
       </c>
       <c r="D43" t="n">
-        <v>124.7748977840762</v>
+        <v>124.7748977840758</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>124.7013398369549</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.2102803081251</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>124.0942159290699</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>100.6768145156434</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.69155423754471</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>27.47925483030489</v>
+        <v>170.4517498360495</v>
       </c>
       <c r="T43" t="n">
-        <v>203.806395591331</v>
+        <v>203.8063955913306</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>251.1952138656995</v>
       </c>
       <c r="X43" t="n">
-        <v>202.4376348124125</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>191.5790563890884</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>367.1879140718487</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>359.9418622996645</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>352.2848333130647</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>369.2558054521867</v>
       </c>
       <c r="F44" t="n">
         <v>383.4236099028878</v>
       </c>
       <c r="G44" t="n">
-        <v>379.5969356472478</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>290.1853351391065</v>
+        <v>252.7342751631732</v>
       </c>
       <c r="I44" t="n">
-        <v>102.5510524823489</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.5315638774747</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>191.3845334069481</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>223.8827334371376</v>
       </c>
       <c r="V44" t="n">
-        <v>88.88607607660494</v>
+        <v>309.3838570210826</v>
       </c>
       <c r="W44" t="n">
-        <v>337.9871604989612</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>356.2561948338395</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>139.2011825722365</v>
       </c>
       <c r="D46" t="n">
         <v>124.7748977840762</v>
       </c>
       <c r="E46" t="n">
-        <v>89.41460634702773</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>137.2102803081251</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.69155423754471</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>253.279282446939</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>35.29378098466026</v>
       </c>
       <c r="W46" t="n">
-        <v>251.1952138656999</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>202.4376348124125</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>191.5790563890889</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.464857499824</v>
+        <v>847.9059862831563</v>
       </c>
       <c r="C2" t="n">
-        <v>69.28935600275456</v>
+        <v>454.7304847860868</v>
       </c>
       <c r="D2" t="n">
         <v>69.28935600275456</v>
@@ -4336,13 +4336,13 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>666.9511603618604</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1212.952060406441</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1740.763344043903</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
         <v>2180.802944936232</v>
@@ -4357,25 +4357,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U2" t="n">
-        <v>1681.888704297768</v>
+        <v>2034.344046140895</v>
       </c>
       <c r="V2" t="n">
-        <v>1339.781895001287</v>
+        <v>2034.344046140895</v>
       </c>
       <c r="W2" t="n">
-        <v>968.782859969574</v>
+        <v>2034.344046140895</v>
       </c>
       <c r="X2" t="n">
-        <v>858.9555665792229</v>
+        <v>1644.891441073952</v>
       </c>
       <c r="Y2" t="n">
-        <v>462.464857499824</v>
+        <v>1248.400731994553</v>
       </c>
     </row>
     <row r="3">
@@ -4418,16 +4418,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
+        <v>963.7331842818107</v>
+      </c>
+      <c r="N3" t="n">
         <v>1549.231189288413</v>
       </c>
-      <c r="N3" t="n">
-        <v>1960.027136360783</v>
-      </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4518,22 +4518,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>877.0522240557525</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U4" t="n">
-        <v>877.0522240557525</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V4" t="n">
-        <v>877.0522240557525</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W4" t="n">
-        <v>877.0522240557525</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X4" t="n">
-        <v>877.0522240557525</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>877.0522240557525</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1965.153759365783</v>
+        <v>1199.605467919878</v>
       </c>
       <c r="C5" t="n">
-        <v>1604.036739400527</v>
+        <v>995.6511265770774</v>
       </c>
       <c r="D5" t="n">
-        <v>1604.036739400527</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E5" t="n">
-        <v>1201.453214517072</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F5" t="n">
-        <v>784.5587760470498</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K5" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>685.2830347289006</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M5" t="n">
-        <v>1231.283934773481</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N5" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.64850507718</v>
+        <v>1596.096176999277</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.64850507718</v>
+        <v>1199.605467919878</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>480.1670983834975</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1065.6651033901</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1651.163108396702</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O6" t="n">
-        <v>2167.683390987683</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2167.683390987683</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>442.3175293909171</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>272.1124114569063</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>272.1124114569063</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>272.1124114569063</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>272.1124114569063</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>103.8583575563519</v>
       </c>
       <c r="H7" t="n">
         <v>47.31297010154361</v>
@@ -4761,16 +4761,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>466.6013110098618</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X7" t="n">
-        <v>232.5209887928449</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.5209887928449</v>
+        <v>442.3175293909171</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>661.9641994989784</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="C8" t="n">
-        <v>661.9641994989784</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="D8" t="n">
-        <v>661.9641994989784</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3724064362639</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1392.575851912381</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.402259356717</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1848.402259356717</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1848.402259356717</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1458.949654289774</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1062.458945210375</v>
+        <v>1976.195900010237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>2065.751471879394</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>491.4447586437693</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>491.4447586437693</v>
+        <v>778.5548747090853</v>
       </c>
       <c r="D10" t="n">
-        <v>491.4447586437693</v>
+        <v>714.3085921423267</v>
       </c>
       <c r="E10" t="n">
-        <v>335.8859465029718</v>
+        <v>558.7497800015292</v>
       </c>
       <c r="F10" t="n">
-        <v>335.8859465029718</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5001,13 +5001,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4295905742738</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>491.4447586437693</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>491.4447586437693</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1455.050572891038</v>
+        <v>1886.596023961056</v>
       </c>
       <c r="C11" t="n">
-        <v>1154.104293800098</v>
+        <v>1585.649744870115</v>
       </c>
       <c r="D11" t="n">
-        <v>860.8923874228942</v>
+        <v>1292.437838492912</v>
       </c>
       <c r="E11" t="n">
-        <v>550.5380849455673</v>
+        <v>982.0835360155847</v>
       </c>
       <c r="F11" t="n">
-        <v>336.618431418747</v>
+        <v>657.4183199516912</v>
       </c>
       <c r="G11" t="n">
         <v>336.618431418747</v>
@@ -5041,7 +5041,7 @@
         <v>65.17772877007124</v>
       </c>
       <c r="J11" t="n">
-        <v>220.9446937202923</v>
+        <v>220.9446937202924</v>
       </c>
       <c r="K11" t="n">
         <v>596.5888387830606</v>
@@ -5077,16 +5077,16 @@
         <v>2893.448365046328</v>
       </c>
       <c r="V11" t="n">
-        <v>2643.570778155975</v>
+        <v>2893.448365046328</v>
       </c>
       <c r="W11" t="n">
-        <v>2364.800965530391</v>
+        <v>2614.678552420744</v>
       </c>
       <c r="X11" t="n">
-        <v>2067.577582869577</v>
+        <v>2499.123033939594</v>
       </c>
       <c r="Y11" t="n">
-        <v>1763.316096196307</v>
+        <v>2194.861547266324</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>65.17772877007124</v>
       </c>
       <c r="J12" t="n">
-        <v>65.17772877007124</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="K12" t="n">
-        <v>396.2337711850387</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="L12" t="n">
-        <v>895.0168208213655</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="M12" t="n">
-        <v>923.7170019732479</v>
+        <v>830.4431629803944</v>
       </c>
       <c r="N12" t="n">
-        <v>1597.72243975689</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="O12" t="n">
-        <v>2130.9172932376</v>
+        <v>1711.913111326058</v>
       </c>
       <c r="P12" t="n">
         <v>2130.9172932376</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1535.286159379976</v>
+        <v>1615.15532131238</v>
       </c>
       <c r="C14" t="n">
-        <v>1234.339880289035</v>
+        <v>1314.209042221439</v>
       </c>
       <c r="D14" t="n">
-        <v>941.1279739118315</v>
+        <v>1020.997135844236</v>
       </c>
       <c r="E14" t="n">
-        <v>941.1279739118315</v>
+        <v>710.6428333669089</v>
       </c>
       <c r="F14" t="n">
-        <v>616.462757847938</v>
+        <v>385.9776173030153</v>
       </c>
       <c r="G14" t="n">
-        <v>295.6628693149938</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="H14" t="n">
         <v>65.17772877007124</v>
@@ -5308,22 +5308,22 @@
         <v>3258.886438503562</v>
       </c>
       <c r="T14" t="n">
-        <v>3128.200087587082</v>
+        <v>3217.065929061109</v>
       </c>
       <c r="U14" t="n">
-        <v>2964.687271993643</v>
+        <v>3053.55311346767</v>
       </c>
       <c r="V14" t="n">
-        <v>2714.80968510329</v>
+        <v>2803.675526577317</v>
       </c>
       <c r="W14" t="n">
-        <v>2445.036552019329</v>
+        <v>2524.905713951733</v>
       </c>
       <c r="X14" t="n">
-        <v>2147.813169358514</v>
+        <v>2227.682331290919</v>
       </c>
       <c r="Y14" t="n">
-        <v>1843.551682685244</v>
+        <v>1923.420844617649</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>65.17772877007124</v>
       </c>
       <c r="J15" t="n">
-        <v>65.17772877007124</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="K15" t="n">
-        <v>249.2409181893627</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="L15" t="n">
-        <v>748.0239678256895</v>
+        <v>1014.753126460557</v>
       </c>
       <c r="M15" t="n">
-        <v>748.0239678256895</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="N15" t="n">
-        <v>1422.029405609331</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="O15" t="n">
-        <v>1955.224259090041</v>
+        <v>1711.913111326058</v>
       </c>
       <c r="P15" t="n">
-        <v>2374.228441001583</v>
+        <v>2130.9172932376</v>
       </c>
       <c r="Q15" t="n">
         <v>2374.228441001583</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>512.7274259472397</v>
+        <v>512.7274259472391</v>
       </c>
       <c r="C16" t="n">
-        <v>434.7515304193576</v>
+        <v>434.751530419357</v>
       </c>
       <c r="D16" t="n">
-        <v>371.347639728001</v>
+        <v>371.3476397280004</v>
       </c>
       <c r="E16" t="n">
-        <v>308.0180499933322</v>
+        <v>308.0180499933315</v>
       </c>
       <c r="F16" t="n">
-        <v>242.9213376124338</v>
+        <v>242.9213376124331</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9564544725429</v>
+        <v>166.9564544725423</v>
       </c>
       <c r="H16" t="n">
         <v>104.2401212104856</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1886.596023961056</v>
+        <v>1752.273955551853</v>
       </c>
       <c r="C17" t="n">
-        <v>1585.649744870115</v>
+        <v>1451.327676460912</v>
       </c>
       <c r="D17" t="n">
-        <v>1292.437838492912</v>
+        <v>1158.115770083709</v>
       </c>
       <c r="E17" t="n">
         <v>982.0835360155847</v>
@@ -5518,7 +5518,7 @@
         <v>220.9446937202924</v>
       </c>
       <c r="K17" t="n">
-        <v>596.5888387830606</v>
+        <v>596.5888387830605</v>
       </c>
       <c r="L17" t="n">
         <v>1110.579553136057</v>
@@ -5551,16 +5551,16 @@
         <v>2893.448365046328</v>
       </c>
       <c r="V17" t="n">
-        <v>2796.346416600409</v>
+        <v>2643.570778155975</v>
       </c>
       <c r="W17" t="n">
-        <v>2796.346416600409</v>
+        <v>2364.800965530391</v>
       </c>
       <c r="X17" t="n">
-        <v>2499.123033939594</v>
+        <v>2364.800965530391</v>
       </c>
       <c r="Y17" t="n">
-        <v>2194.861547266324</v>
+        <v>2060.539478857121</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>65.17772877007124</v>
       </c>
       <c r="J18" t="n">
-        <v>65.17772877007124</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="K18" t="n">
-        <v>65.17772877007124</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="L18" t="n">
-        <v>278.1878734021158</v>
+        <v>1014.753126460557</v>
       </c>
       <c r="M18" t="n">
-        <v>923.7170019732479</v>
+        <v>1422.029405609331</v>
       </c>
       <c r="N18" t="n">
-        <v>1597.72243975689</v>
+        <v>1422.029405609331</v>
       </c>
       <c r="O18" t="n">
-        <v>2130.9172932376</v>
+        <v>1955.224259090041</v>
       </c>
       <c r="P18" t="n">
-        <v>2130.9172932376</v>
+        <v>2374.228441001583</v>
       </c>
       <c r="Q18" t="n">
         <v>2374.228441001583</v>
@@ -5655,13 +5655,13 @@
         <v>434.751530419357</v>
       </c>
       <c r="D19" t="n">
-        <v>371.3476397280004</v>
+        <v>371.347639728001</v>
       </c>
       <c r="E19" t="n">
-        <v>308.0180499933315</v>
+        <v>308.0180499933322</v>
       </c>
       <c r="F19" t="n">
-        <v>242.9213376124331</v>
+        <v>242.9213376124338</v>
       </c>
       <c r="G19" t="n">
         <v>166.9564544725429</v>
@@ -5734,40 +5734,40 @@
         <v>1154.104293800098</v>
       </c>
       <c r="D20" t="n">
-        <v>860.8923874228942</v>
+        <v>1154.104293800098</v>
       </c>
       <c r="E20" t="n">
-        <v>550.5380849455673</v>
+        <v>843.7499913227709</v>
       </c>
       <c r="F20" t="n">
-        <v>550.5380849455673</v>
+        <v>519.0847752588774</v>
       </c>
       <c r="G20" t="n">
-        <v>295.6628693149938</v>
+        <v>198.2848867259332</v>
       </c>
       <c r="H20" t="n">
-        <v>65.17772877007124</v>
+        <v>106.1332908738245</v>
       </c>
       <c r="I20" t="n">
         <v>65.17772877007124</v>
       </c>
       <c r="J20" t="n">
-        <v>220.944693720292</v>
+        <v>220.9446937202924</v>
       </c>
       <c r="K20" t="n">
-        <v>596.5888387830602</v>
+        <v>596.588838783061</v>
       </c>
       <c r="L20" t="n">
-        <v>1110.579553136056</v>
+        <v>1110.579553136057</v>
       </c>
       <c r="M20" t="n">
         <v>1679.580281125535</v>
       </c>
       <c r="N20" t="n">
-        <v>2230.763553969622</v>
+        <v>2230.763553969623</v>
       </c>
       <c r="O20" t="n">
-        <v>2692.872661518181</v>
+        <v>2692.872661518182</v>
       </c>
       <c r="P20" t="n">
         <v>3059.895966984714</v>
@@ -5831,25 +5831,25 @@
         <v>65.17772877007124</v>
       </c>
       <c r="J21" t="n">
-        <v>65.17772877007124</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="K21" t="n">
-        <v>65.17772877007124</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="L21" t="n">
-        <v>65.17772877007124</v>
+        <v>1014.753126460557</v>
       </c>
       <c r="M21" t="n">
-        <v>504.7128200617059</v>
+        <v>1422.029405609331</v>
       </c>
       <c r="N21" t="n">
-        <v>1178.718257845348</v>
+        <v>1422.029405609331</v>
       </c>
       <c r="O21" t="n">
-        <v>1711.913111326058</v>
+        <v>1955.224259090041</v>
       </c>
       <c r="P21" t="n">
-        <v>2130.9172932376</v>
+        <v>2374.228441001583</v>
       </c>
       <c r="Q21" t="n">
         <v>2374.228441001583</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>512.7274259472389</v>
+        <v>512.7274259472393</v>
       </c>
       <c r="C22" t="n">
-        <v>434.7515304193568</v>
+        <v>434.7515304193572</v>
       </c>
       <c r="D22" t="n">
-        <v>371.3476397280002</v>
+        <v>371.3476397280006</v>
       </c>
       <c r="E22" t="n">
-        <v>308.0180499933313</v>
+        <v>308.0180499933318</v>
       </c>
       <c r="F22" t="n">
-        <v>242.9213376124329</v>
+        <v>242.9213376124334</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9564544725421</v>
+        <v>166.956454472543</v>
       </c>
       <c r="H22" t="n">
-        <v>104.2401212104848</v>
+        <v>104.2401212104857</v>
       </c>
       <c r="I22" t="n">
         <v>65.17772877007124</v>
@@ -5916,10 +5916,10 @@
         <v>309.0070617114726</v>
       </c>
       <c r="L22" t="n">
-        <v>572.263885390998</v>
+        <v>572.2638853909981</v>
       </c>
       <c r="M22" t="n">
-        <v>858.1594978517758</v>
+        <v>858.159497851776</v>
       </c>
       <c r="N22" t="n">
         <v>1140.734168671547</v>
@@ -5934,10 +5934,10 @@
         <v>1718.249845188928</v>
       </c>
       <c r="R22" t="n">
-        <v>1689.273574241542</v>
+        <v>1689.273574241543</v>
       </c>
       <c r="S22" t="n">
-        <v>1579.731449154252</v>
+        <v>1579.731449154253</v>
       </c>
       <c r="T22" t="n">
         <v>1436.497762697992</v>
@@ -5949,13 +5949,13 @@
         <v>1069.541340483222</v>
       </c>
       <c r="W22" t="n">
-        <v>878.4401608205278</v>
+        <v>878.4401608205283</v>
       </c>
       <c r="X22" t="n">
-        <v>736.5890610096395</v>
+        <v>736.58906100964</v>
       </c>
       <c r="Y22" t="n">
-        <v>605.7062222324115</v>
+        <v>605.706222232412</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1455.050572891038</v>
+        <v>1656.110883416133</v>
       </c>
       <c r="C23" t="n">
-        <v>1154.104293800097</v>
+        <v>1355.164604325193</v>
       </c>
       <c r="D23" t="n">
-        <v>971.6379499599675</v>
+        <v>1061.952697947989</v>
       </c>
       <c r="E23" t="n">
-        <v>661.2836474826406</v>
+        <v>751.5983954706621</v>
       </c>
       <c r="F23" t="n">
-        <v>336.618431418747</v>
+        <v>426.9331794067686</v>
       </c>
       <c r="G23" t="n">
-        <v>336.618431418747</v>
+        <v>106.1332908738245</v>
       </c>
       <c r="H23" t="n">
         <v>106.1332908738245</v>
@@ -5989,7 +5989,7 @@
         <v>65.17772877007123</v>
       </c>
       <c r="J23" t="n">
-        <v>220.944693720292</v>
+        <v>220.9446937202922</v>
       </c>
       <c r="K23" t="n">
         <v>596.5888387830605</v>
@@ -5998,7 +5998,7 @@
         <v>1110.579553136057</v>
       </c>
       <c r="M23" t="n">
-        <v>1679.580281125534</v>
+        <v>1679.580281125535</v>
       </c>
       <c r="N23" t="n">
         <v>2230.763553969622</v>
@@ -6016,25 +6016,25 @@
         <v>3258.886438503561</v>
       </c>
       <c r="S23" t="n">
-        <v>3187.647531556247</v>
+        <v>3258.886438503561</v>
       </c>
       <c r="T23" t="n">
-        <v>3056.961180639767</v>
+        <v>3128.200087587082</v>
       </c>
       <c r="U23" t="n">
-        <v>2893.448365046328</v>
+        <v>2964.687271993643</v>
       </c>
       <c r="V23" t="n">
-        <v>2643.570778155975</v>
+        <v>2714.80968510329</v>
       </c>
       <c r="W23" t="n">
-        <v>2364.800965530391</v>
+        <v>2436.039872477706</v>
       </c>
       <c r="X23" t="n">
-        <v>2067.577582869576</v>
+        <v>2268.637893394672</v>
       </c>
       <c r="Y23" t="n">
-        <v>1763.316096196306</v>
+        <v>1964.376406721402</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>65.17772877007123</v>
       </c>
       <c r="J24" t="n">
-        <v>65.17772877007123</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="K24" t="n">
-        <v>65.17772877007123</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="L24" t="n">
-        <v>65.17772877007123</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="M24" t="n">
-        <v>710.7068573412033</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="N24" t="n">
         <v>1178.718257845348</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>512.7274259472399</v>
+        <v>512.7274259472397</v>
       </c>
       <c r="C25" t="n">
-        <v>434.7515304193578</v>
+        <v>434.7515304193576</v>
       </c>
       <c r="D25" t="n">
-        <v>371.3476397280012</v>
+        <v>371.347639728001</v>
       </c>
       <c r="E25" t="n">
-        <v>308.0180499933323</v>
+        <v>308.0180499933322</v>
       </c>
       <c r="F25" t="n">
-        <v>242.9213376124339</v>
+        <v>242.9213376124338</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9564544725431</v>
+        <v>166.9564544725429</v>
       </c>
       <c r="H25" t="n">
         <v>104.2401212104856</v>
       </c>
       <c r="I25" t="n">
-        <v>65.17772877007124</v>
+        <v>65.17772877007123</v>
       </c>
       <c r="J25" t="n">
         <v>129.9518525800573</v>
       </c>
       <c r="K25" t="n">
-        <v>309.0070617114726</v>
+        <v>309.0070617114732</v>
       </c>
       <c r="L25" t="n">
-        <v>572.2638853909981</v>
+        <v>572.2638853909987</v>
       </c>
       <c r="M25" t="n">
-        <v>858.159497851776</v>
+        <v>858.1594978517765</v>
       </c>
       <c r="N25" t="n">
-        <v>1140.734168671547</v>
+        <v>1140.734168671548</v>
       </c>
       <c r="O25" t="n">
-        <v>1402.137602808822</v>
+        <v>1402.137602808823</v>
       </c>
       <c r="P25" t="n">
-        <v>1619.513825882461</v>
+        <v>1619.513825882462</v>
       </c>
       <c r="Q25" t="n">
         <v>1718.249845188928</v>
@@ -6177,7 +6177,7 @@
         <v>1579.731449154253</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.497762697992</v>
+        <v>1436.497762697993</v>
       </c>
       <c r="U25" t="n">
         <v>1243.291463256269</v>
@@ -6186,13 +6186,13 @@
         <v>1069.541340483222</v>
       </c>
       <c r="W25" t="n">
-        <v>878.4401608205287</v>
+        <v>878.4401608205286</v>
       </c>
       <c r="X25" t="n">
-        <v>736.5890610096405</v>
+        <v>736.5890610096403</v>
       </c>
       <c r="Y25" t="n">
-        <v>605.7062222324125</v>
+        <v>605.7062222324123</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1556.131056522529</v>
+        <v>1652.963789648383</v>
       </c>
       <c r="C26" t="n">
-        <v>1225.586914621049</v>
+        <v>1322.419647746902</v>
       </c>
       <c r="D26" t="n">
-        <v>902.7771454333057</v>
+        <v>1322.419647746902</v>
       </c>
       <c r="E26" t="n">
-        <v>902.7771454333057</v>
+        <v>982.467482459035</v>
       </c>
       <c r="F26" t="n">
-        <v>746.2119083833097</v>
+        <v>746.2119083833113</v>
       </c>
       <c r="G26" t="n">
-        <v>395.8141570398261</v>
+        <v>395.8141570398271</v>
       </c>
       <c r="H26" t="n">
-        <v>135.731153684364</v>
+        <v>135.7311536843645</v>
       </c>
       <c r="I26" t="n">
         <v>65.17772877007123</v>
       </c>
       <c r="J26" t="n">
-        <v>220.9446937202922</v>
+        <v>220.9446937202924</v>
       </c>
       <c r="K26" t="n">
-        <v>596.5888387830606</v>
+        <v>596.5888387830605</v>
       </c>
       <c r="L26" t="n">
         <v>1110.579553136057</v>
       </c>
       <c r="M26" t="n">
-        <v>1679.580281125535</v>
+        <v>1679.580281125534</v>
       </c>
       <c r="N26" t="n">
         <v>2230.763553969622</v>
@@ -6253,25 +6253,25 @@
         <v>3258.886438503561</v>
       </c>
       <c r="S26" t="n">
-        <v>3158.049668745707</v>
+        <v>3258.886438503561</v>
       </c>
       <c r="T26" t="n">
-        <v>2997.765455018688</v>
+        <v>3098.602224776541</v>
       </c>
       <c r="U26" t="n">
-        <v>2804.654776614709</v>
+        <v>2905.491546372562</v>
       </c>
       <c r="V26" t="n">
-        <v>2525.179326913817</v>
+        <v>2626.016096671669</v>
       </c>
       <c r="W26" t="n">
-        <v>2216.811651477693</v>
+        <v>2317.648421235545</v>
       </c>
       <c r="X26" t="n">
-        <v>1889.990406006339</v>
+        <v>1990.827175764191</v>
       </c>
       <c r="Y26" t="n">
-        <v>1556.131056522529</v>
+        <v>1990.827175764191</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>65.17772877007123</v>
       </c>
       <c r="J27" t="n">
-        <v>65.17772877007123</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="K27" t="n">
-        <v>65.17772877007123</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="L27" t="n">
-        <v>65.17772877007123</v>
+        <v>1014.753126460557</v>
       </c>
       <c r="M27" t="n">
-        <v>710.7068573412033</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="N27" t="n">
-        <v>1384.712295124845</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="O27" t="n">
         <v>1711.913111326058</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.17772877007123</v>
+        <v>450.6766985297468</v>
       </c>
       <c r="C28" t="n">
-        <v>65.17772877007123</v>
+        <v>450.6766985297468</v>
       </c>
       <c r="D28" t="n">
-        <v>65.17772877007123</v>
+        <v>450.6766985297468</v>
       </c>
       <c r="E28" t="n">
-        <v>65.17772877007123</v>
+        <v>357.7492459845379</v>
       </c>
       <c r="F28" t="n">
-        <v>65.17772877007123</v>
+        <v>263.0546707930995</v>
       </c>
       <c r="G28" t="n">
-        <v>65.17772877007123</v>
+        <v>157.4919248426686</v>
       </c>
       <c r="H28" t="n">
         <v>65.17772877007123</v>
@@ -6384,52 +6384,52 @@
         <v>65.17772877007123</v>
       </c>
       <c r="J28" t="n">
-        <v>100.9429872394475</v>
+        <v>100.942987239447</v>
       </c>
       <c r="K28" t="n">
-        <v>250.989331030253</v>
+        <v>250.989331030252</v>
       </c>
       <c r="L28" t="n">
-        <v>485.2372893691687</v>
+        <v>485.2372893691672</v>
       </c>
       <c r="M28" t="n">
-        <v>742.1240364893366</v>
+        <v>742.1240364893347</v>
       </c>
       <c r="N28" t="n">
-        <v>995.6898419684981</v>
+        <v>995.6898419684956</v>
       </c>
       <c r="O28" t="n">
-        <v>1228.084410765163</v>
+        <v>1228.08441076516</v>
       </c>
       <c r="P28" t="n">
-        <v>1416.451768498192</v>
+        <v>1416.451768498189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1486.178922464049</v>
+        <v>1486.178922464045</v>
       </c>
       <c r="R28" t="n">
-        <v>1427.604788706124</v>
+        <v>1427.60478870612</v>
       </c>
       <c r="S28" t="n">
-        <v>1288.464800808295</v>
+        <v>1288.46480080829</v>
       </c>
       <c r="T28" t="n">
-        <v>1115.633251541495</v>
+        <v>1115.63325154149</v>
       </c>
       <c r="U28" t="n">
-        <v>892.8290892892323</v>
+        <v>905.1830218346558</v>
       </c>
       <c r="V28" t="n">
-        <v>740.3830945482121</v>
+        <v>905.1830218346558</v>
       </c>
       <c r="W28" t="n">
-        <v>519.6840520749788</v>
+        <v>905.1830218346558</v>
       </c>
       <c r="X28" t="n">
-        <v>348.235089453551</v>
+        <v>733.7340592132276</v>
       </c>
       <c r="Y28" t="n">
-        <v>187.7543878657834</v>
+        <v>573.2533576254596</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1556.131056522529</v>
+        <v>2093.781063634833</v>
       </c>
       <c r="C29" t="n">
-        <v>1225.586914621049</v>
+        <v>1763.236921733353</v>
       </c>
       <c r="D29" t="n">
-        <v>902.7771454333057</v>
+        <v>1440.427152545609</v>
       </c>
       <c r="E29" t="n">
-        <v>562.8249801454393</v>
+        <v>1100.474987257743</v>
       </c>
       <c r="F29" t="n">
-        <v>208.5619012710062</v>
+        <v>746.2119083833099</v>
       </c>
       <c r="G29" t="n">
-        <v>135.731153684364</v>
+        <v>395.8141570398262</v>
       </c>
       <c r="H29" t="n">
-        <v>135.731153684364</v>
+        <v>135.7311536843641</v>
       </c>
       <c r="I29" t="n">
         <v>65.17772877007123</v>
@@ -6466,7 +6466,7 @@
         <v>220.9446937202922</v>
       </c>
       <c r="K29" t="n">
-        <v>596.5888387830606</v>
+        <v>596.5888387830605</v>
       </c>
       <c r="L29" t="n">
         <v>1110.579553136057</v>
@@ -6490,25 +6490,25 @@
         <v>3258.886438503561</v>
       </c>
       <c r="S29" t="n">
-        <v>3158.049668745707</v>
+        <v>3252.609258432824</v>
       </c>
       <c r="T29" t="n">
-        <v>2997.765455018688</v>
+        <v>3092.325044705804</v>
       </c>
       <c r="U29" t="n">
-        <v>2804.654776614709</v>
+        <v>3092.325044705804</v>
       </c>
       <c r="V29" t="n">
-        <v>2525.179326913817</v>
+        <v>3092.325044705804</v>
       </c>
       <c r="W29" t="n">
-        <v>2216.811651477693</v>
+        <v>3092.325044705804</v>
       </c>
       <c r="X29" t="n">
-        <v>1889.990406006339</v>
+        <v>2765.503799234451</v>
       </c>
       <c r="Y29" t="n">
-        <v>1556.131056522529</v>
+        <v>2431.644449750641</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>65.17772877007123</v>
       </c>
       <c r="J30" t="n">
-        <v>65.17772877007123</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="K30" t="n">
-        <v>65.17772877007123</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="L30" t="n">
-        <v>563.960778406398</v>
+        <v>1014.753126460557</v>
       </c>
       <c r="M30" t="n">
-        <v>563.960778406398</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="N30" t="n">
-        <v>1237.96621619004</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="O30" t="n">
-        <v>1771.16106967075</v>
+        <v>1711.913111326058</v>
       </c>
       <c r="P30" t="n">
         <v>2130.9172932376</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>172.7514871084929</v>
+        <v>358.5562498157321</v>
       </c>
       <c r="C31" t="n">
-        <v>65.17772877007123</v>
+        <v>321.5343127143594</v>
       </c>
       <c r="D31" t="n">
-        <v>65.17772877007123</v>
+        <v>228.5325592124632</v>
       </c>
       <c r="E31" t="n">
-        <v>65.17772877007123</v>
+        <v>228.5325592124632</v>
       </c>
       <c r="F31" t="n">
-        <v>65.17772877007123</v>
+        <v>133.8379840210252</v>
       </c>
       <c r="G31" t="n">
-        <v>65.17772877007123</v>
+        <v>133.8379840210252</v>
       </c>
       <c r="H31" t="n">
-        <v>65.17772877007123</v>
+        <v>133.8379840210252</v>
       </c>
       <c r="I31" t="n">
         <v>65.17772877007123</v>
       </c>
       <c r="J31" t="n">
-        <v>100.9429872394475</v>
+        <v>100.9429872394474</v>
       </c>
       <c r="K31" t="n">
-        <v>250.989331030253</v>
+        <v>250.9893310302529</v>
       </c>
       <c r="L31" t="n">
-        <v>485.2372893691687</v>
+        <v>485.2372893691685</v>
       </c>
       <c r="M31" t="n">
-        <v>742.1240364893366</v>
+        <v>742.1240364893364</v>
       </c>
       <c r="N31" t="n">
-        <v>995.6898419684981</v>
+        <v>995.6898419684977</v>
       </c>
       <c r="O31" t="n">
         <v>1228.084410765163</v>
@@ -6651,22 +6651,22 @@
         <v>1288.464800808295</v>
       </c>
       <c r="T31" t="n">
-        <v>1115.633251541495</v>
+        <v>1288.464800808295</v>
       </c>
       <c r="U31" t="n">
-        <v>892.8290892892323</v>
+        <v>1065.660638556032</v>
       </c>
       <c r="V31" t="n">
-        <v>689.4811037056456</v>
+        <v>862.3126529724452</v>
       </c>
       <c r="W31" t="n">
-        <v>468.7820612324124</v>
+        <v>641.613610499212</v>
       </c>
       <c r="X31" t="n">
-        <v>297.3330986109846</v>
+        <v>641.613610499212</v>
       </c>
       <c r="Y31" t="n">
-        <v>172.7514871084929</v>
+        <v>481.1329089114444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1455.050572891039</v>
+        <v>1455.050572891038</v>
       </c>
       <c r="C32" t="n">
-        <v>1264.849856337171</v>
+        <v>1154.104293800098</v>
       </c>
       <c r="D32" t="n">
-        <v>971.6379499599674</v>
+        <v>860.8923874228942</v>
       </c>
       <c r="E32" t="n">
-        <v>661.2836474826406</v>
+        <v>550.5380849455674</v>
       </c>
       <c r="F32" t="n">
-        <v>336.618431418747</v>
+        <v>225.8728688816739</v>
       </c>
       <c r="G32" t="n">
-        <v>336.618431418747</v>
+        <v>225.8728688816739</v>
       </c>
       <c r="H32" t="n">
         <v>106.1332908738244</v>
       </c>
       <c r="I32" t="n">
-        <v>65.17772877007124</v>
+        <v>65.17772877007123</v>
       </c>
       <c r="J32" t="n">
         <v>220.9446937202923</v>
@@ -6706,7 +6706,7 @@
         <v>596.5888387830605</v>
       </c>
       <c r="L32" t="n">
-        <v>1110.579553136057</v>
+        <v>1110.579553136056</v>
       </c>
       <c r="M32" t="n">
         <v>1679.580281125534</v>
@@ -6718,34 +6718,34 @@
         <v>2692.872661518181</v>
       </c>
       <c r="P32" t="n">
-        <v>3059.895966984715</v>
+        <v>3059.895966984714</v>
       </c>
       <c r="Q32" t="n">
-        <v>3258.886438503562</v>
+        <v>3258.886438503561</v>
       </c>
       <c r="R32" t="n">
-        <v>3258.886438503562</v>
+        <v>3258.886438503561</v>
       </c>
       <c r="S32" t="n">
         <v>3187.647531556247</v>
       </c>
       <c r="T32" t="n">
-        <v>3056.961180639768</v>
+        <v>3056.961180639767</v>
       </c>
       <c r="U32" t="n">
-        <v>2893.448365046329</v>
+        <v>2893.448365046328</v>
       </c>
       <c r="V32" t="n">
-        <v>2643.570778155976</v>
+        <v>2643.570778155975</v>
       </c>
       <c r="W32" t="n">
-        <v>2364.800965530392</v>
+        <v>2364.800965530391</v>
       </c>
       <c r="X32" t="n">
-        <v>2067.577582869578</v>
+        <v>2067.577582869577</v>
       </c>
       <c r="Y32" t="n">
-        <v>1763.316096196308</v>
+        <v>1763.316096196307</v>
       </c>
     </row>
     <row r="33">
@@ -6764,31 +6764,31 @@
         <v>580.5764648496686</v>
       </c>
       <c r="E33" t="n">
-        <v>444.1299739605563</v>
+        <v>444.1299739605562</v>
       </c>
       <c r="F33" t="n">
         <v>319.6981678436881</v>
       </c>
       <c r="G33" t="n">
-        <v>199.7098560660562</v>
+        <v>199.7098560660561</v>
       </c>
       <c r="H33" t="n">
         <v>112.103038541258</v>
       </c>
       <c r="I33" t="n">
-        <v>65.17772877007124</v>
+        <v>65.17772877007123</v>
       </c>
       <c r="J33" t="n">
-        <v>65.17772877007124</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="K33" t="n">
-        <v>65.17772877007124</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="L33" t="n">
-        <v>65.17772877007124</v>
+        <v>1014.753126460557</v>
       </c>
       <c r="M33" t="n">
-        <v>710.7068573412033</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="N33" t="n">
         <v>1178.718257845348</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>512.7274259472399</v>
+        <v>512.7274259472396</v>
       </c>
       <c r="C34" t="n">
-        <v>434.7515304193578</v>
+        <v>434.7515304193574</v>
       </c>
       <c r="D34" t="n">
         <v>371.3476397280008</v>
@@ -6846,19 +6846,19 @@
         <v>308.018049993332</v>
       </c>
       <c r="F34" t="n">
-        <v>242.9213376124337</v>
+        <v>242.9213376124336</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9564544725428</v>
+        <v>166.9564544725429</v>
       </c>
       <c r="H34" t="n">
         <v>104.2401212104856</v>
       </c>
       <c r="I34" t="n">
-        <v>65.17772877007124</v>
+        <v>65.17772877007123</v>
       </c>
       <c r="J34" t="n">
-        <v>129.9518525800573</v>
+        <v>129.9518525800574</v>
       </c>
       <c r="K34" t="n">
         <v>309.0070617114727</v>
@@ -6882,13 +6882,13 @@
         <v>1718.249845188928</v>
       </c>
       <c r="R34" t="n">
-        <v>1689.273574241543</v>
+        <v>1689.273574241542</v>
       </c>
       <c r="S34" t="n">
         <v>1579.731449154253</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.497762697993</v>
+        <v>1436.497762697992</v>
       </c>
       <c r="U34" t="n">
         <v>1243.291463256269</v>
@@ -6897,13 +6897,13 @@
         <v>1069.541340483222</v>
       </c>
       <c r="W34" t="n">
-        <v>878.4401608205287</v>
+        <v>878.4401608205283</v>
       </c>
       <c r="X34" t="n">
-        <v>736.5890610096405</v>
+        <v>736.5890610096401</v>
       </c>
       <c r="Y34" t="n">
-        <v>605.7062222324125</v>
+        <v>605.7062222324122</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1455.050572891038</v>
+        <v>1830.550966511623</v>
       </c>
       <c r="C35" t="n">
-        <v>1154.104293800098</v>
+        <v>1529.604687420683</v>
       </c>
       <c r="D35" t="n">
-        <v>860.8923874228942</v>
+        <v>1236.392781043479</v>
       </c>
       <c r="E35" t="n">
-        <v>550.5380849455674</v>
+        <v>982.0835360155846</v>
       </c>
       <c r="F35" t="n">
-        <v>225.8728688816739</v>
+        <v>657.418319951691</v>
       </c>
       <c r="G35" t="n">
-        <v>65.17772877007124</v>
+        <v>336.618431418747</v>
       </c>
       <c r="H35" t="n">
-        <v>65.17772877007124</v>
+        <v>106.1332908738244</v>
       </c>
       <c r="I35" t="n">
-        <v>65.17772877007124</v>
+        <v>65.17772877007123</v>
       </c>
       <c r="J35" t="n">
         <v>220.9446937202922</v>
       </c>
       <c r="K35" t="n">
-        <v>596.5888387830606</v>
+        <v>596.5888387830607</v>
       </c>
       <c r="L35" t="n">
         <v>1110.579553136057</v>
@@ -6949,40 +6949,40 @@
         <v>1679.580281125535</v>
       </c>
       <c r="N35" t="n">
-        <v>2230.763553969623</v>
+        <v>2230.763553969622</v>
       </c>
       <c r="O35" t="n">
-        <v>2692.872661518182</v>
+        <v>2692.872661518181</v>
       </c>
       <c r="P35" t="n">
         <v>3059.895966984714</v>
       </c>
       <c r="Q35" t="n">
-        <v>3258.886438503562</v>
+        <v>3258.886438503561</v>
       </c>
       <c r="R35" t="n">
-        <v>3258.886438503562</v>
+        <v>3258.886438503561</v>
       </c>
       <c r="S35" t="n">
-        <v>3187.647531556247</v>
+        <v>3258.886438503561</v>
       </c>
       <c r="T35" t="n">
-        <v>3056.961180639767</v>
+        <v>3128.200087587082</v>
       </c>
       <c r="U35" t="n">
-        <v>2893.448365046328</v>
+        <v>2964.687271993643</v>
       </c>
       <c r="V35" t="n">
-        <v>2643.570778155975</v>
+        <v>2714.80968510329</v>
       </c>
       <c r="W35" t="n">
-        <v>2364.800965530391</v>
+        <v>2436.039872477706</v>
       </c>
       <c r="X35" t="n">
-        <v>2067.577582869577</v>
+        <v>2138.816489816892</v>
       </c>
       <c r="Y35" t="n">
-        <v>1763.316096196307</v>
+        <v>2138.816489816892</v>
       </c>
     </row>
     <row r="36">
@@ -7001,28 +7001,28 @@
         <v>580.5764648496686</v>
       </c>
       <c r="E36" t="n">
-        <v>444.1299739605563</v>
+        <v>444.1299739605562</v>
       </c>
       <c r="F36" t="n">
         <v>319.6981678436881</v>
       </c>
       <c r="G36" t="n">
-        <v>199.7098560660562</v>
+        <v>199.7098560660561</v>
       </c>
       <c r="H36" t="n">
         <v>112.103038541258</v>
       </c>
       <c r="I36" t="n">
-        <v>65.17772877007124</v>
+        <v>65.17772877007123</v>
       </c>
       <c r="J36" t="n">
-        <v>65.17772877007124</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="K36" t="n">
-        <v>65.17772877007124</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="L36" t="n">
-        <v>563.960778406398</v>
+        <v>1014.753126460557</v>
       </c>
       <c r="M36" t="n">
         <v>1178.718257845348</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>512.7274259472399</v>
+        <v>512.7274259472397</v>
       </c>
       <c r="C37" t="n">
-        <v>434.7515304193578</v>
+        <v>434.7515304193576</v>
       </c>
       <c r="D37" t="n">
-        <v>371.3476397280013</v>
+        <v>371.347639728001</v>
       </c>
       <c r="E37" t="n">
-        <v>308.0180499933325</v>
+        <v>308.0180499933321</v>
       </c>
       <c r="F37" t="n">
-        <v>242.9213376124342</v>
+        <v>242.9213376124337</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9564544725434</v>
+        <v>166.9564544725429</v>
       </c>
       <c r="H37" t="n">
         <v>104.2401212104856</v>
       </c>
       <c r="I37" t="n">
-        <v>65.17772877007124</v>
+        <v>65.17772877007123</v>
       </c>
       <c r="J37" t="n">
         <v>129.9518525800573</v>
       </c>
       <c r="K37" t="n">
-        <v>309.0070617114727</v>
+        <v>309.0070617114726</v>
       </c>
       <c r="L37" t="n">
-        <v>572.2638853909982</v>
+        <v>572.2638853909981</v>
       </c>
       <c r="M37" t="n">
-        <v>858.159497851776</v>
+        <v>858.1594978517758</v>
       </c>
       <c r="N37" t="n">
         <v>1140.734168671547</v>
@@ -7119,13 +7119,13 @@
         <v>1718.249845188928</v>
       </c>
       <c r="R37" t="n">
-        <v>1689.273574241543</v>
+        <v>1689.273574241542</v>
       </c>
       <c r="S37" t="n">
-        <v>1579.731449154253</v>
+        <v>1579.731449154252</v>
       </c>
       <c r="T37" t="n">
-        <v>1436.497762697993</v>
+        <v>1436.497762697992</v>
       </c>
       <c r="U37" t="n">
         <v>1243.291463256269</v>
@@ -7134,13 +7134,13 @@
         <v>1069.541340483222</v>
       </c>
       <c r="W37" t="n">
-        <v>878.4401608205287</v>
+        <v>878.4401608205278</v>
       </c>
       <c r="X37" t="n">
-        <v>736.5890610096405</v>
+        <v>736.5890610096396</v>
       </c>
       <c r="Y37" t="n">
-        <v>605.7062222324125</v>
+        <v>605.7062222324116</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1455.050572891038</v>
+        <v>1882.960306468332</v>
       </c>
       <c r="C38" t="n">
-        <v>1455.050572891038</v>
+        <v>1582.014027377392</v>
       </c>
       <c r="D38" t="n">
-        <v>1292.437838492911</v>
+        <v>1288.802121000188</v>
       </c>
       <c r="E38" t="n">
-        <v>982.0835360155846</v>
+        <v>978.4478185228614</v>
       </c>
       <c r="F38" t="n">
         <v>657.418319951691</v>
       </c>
       <c r="G38" t="n">
-        <v>336.6184314187469</v>
+        <v>336.618431418747</v>
       </c>
       <c r="H38" t="n">
         <v>106.1332908738244</v>
@@ -7174,16 +7174,16 @@
         <v>65.17772877007123</v>
       </c>
       <c r="J38" t="n">
-        <v>220.9446937202922</v>
+        <v>220.944693720292</v>
       </c>
       <c r="K38" t="n">
-        <v>596.5888387830606</v>
+        <v>596.5888387830605</v>
       </c>
       <c r="L38" t="n">
         <v>1110.579553136057</v>
       </c>
       <c r="M38" t="n">
-        <v>1679.580281125535</v>
+        <v>1679.580281125534</v>
       </c>
       <c r="N38" t="n">
         <v>2230.763553969622</v>
@@ -7204,22 +7204,22 @@
         <v>3187.647531556247</v>
       </c>
       <c r="T38" t="n">
-        <v>3056.961180639767</v>
+        <v>3187.647531556247</v>
       </c>
       <c r="U38" t="n">
-        <v>2893.448365046328</v>
+        <v>3024.134715962808</v>
       </c>
       <c r="V38" t="n">
-        <v>2643.570778155975</v>
+        <v>2774.257129072455</v>
       </c>
       <c r="W38" t="n">
-        <v>2364.800965530391</v>
+        <v>2495.487316446871</v>
       </c>
       <c r="X38" t="n">
-        <v>2067.577582869577</v>
+        <v>2495.487316446871</v>
       </c>
       <c r="Y38" t="n">
-        <v>1763.316096196307</v>
+        <v>2191.225829773601</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>65.17772877007123</v>
       </c>
       <c r="J39" t="n">
-        <v>65.17772877007123</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="K39" t="n">
-        <v>65.17772877007123</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="L39" t="n">
-        <v>278.1878734021158</v>
+        <v>1014.753126460557</v>
       </c>
       <c r="M39" t="n">
-        <v>923.7170019732479</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="N39" t="n">
-        <v>1597.72243975689</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="O39" t="n">
-        <v>2130.9172932376</v>
+        <v>1711.913111326058</v>
       </c>
       <c r="P39" t="n">
         <v>2130.9172932376</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>512.7274259472395</v>
+        <v>512.7274259472397</v>
       </c>
       <c r="C40" t="n">
-        <v>434.7515304193574</v>
+        <v>434.7515304193576</v>
       </c>
       <c r="D40" t="n">
-        <v>371.3476397280008</v>
+        <v>371.347639728001</v>
       </c>
       <c r="E40" t="n">
         <v>308.0180499933321</v>
@@ -7323,25 +7323,25 @@
         <v>242.9213376124337</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9564544725428</v>
+        <v>166.9564544725429</v>
       </c>
       <c r="H40" t="n">
         <v>104.2401212104856</v>
       </c>
       <c r="I40" t="n">
-        <v>65.17772877007124</v>
+        <v>65.17772877007123</v>
       </c>
       <c r="J40" t="n">
-        <v>129.9518525800572</v>
+        <v>129.9518525800573</v>
       </c>
       <c r="K40" t="n">
-        <v>309.0070617114725</v>
+        <v>309.0070617114726</v>
       </c>
       <c r="L40" t="n">
         <v>572.2638853909981</v>
       </c>
       <c r="M40" t="n">
-        <v>858.1594978517758</v>
+        <v>858.159497851776</v>
       </c>
       <c r="N40" t="n">
         <v>1140.734168671547</v>
@@ -7362,7 +7362,7 @@
         <v>1579.731449154253</v>
       </c>
       <c r="T40" t="n">
-        <v>1436.497762697993</v>
+        <v>1436.497762697992</v>
       </c>
       <c r="U40" t="n">
         <v>1243.291463256269</v>
@@ -7371,13 +7371,13 @@
         <v>1069.541340483222</v>
       </c>
       <c r="W40" t="n">
-        <v>878.4401608205281</v>
+        <v>878.4401608205285</v>
       </c>
       <c r="X40" t="n">
-        <v>736.58906100964</v>
+        <v>736.5890610096403</v>
       </c>
       <c r="Y40" t="n">
-        <v>605.7062222324121</v>
+        <v>605.7062222324123</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1551.040754216211</v>
+        <v>1801.227525345513</v>
       </c>
       <c r="C41" t="n">
-        <v>1187.463115529681</v>
+        <v>1668.321402303136</v>
       </c>
       <c r="D41" t="n">
-        <v>1187.463115529681</v>
+        <v>1312.478136330343</v>
       </c>
       <c r="E41" t="n">
-        <v>939.4924742574294</v>
+        <v>939.4924742574281</v>
       </c>
       <c r="F41" t="n">
-        <v>552.1958985979468</v>
+        <v>552.1958985979459</v>
       </c>
       <c r="G41" t="n">
-        <v>168.7646504694135</v>
+        <v>168.7646504694131</v>
       </c>
       <c r="H41" t="n">
-        <v>168.7646504694135</v>
+        <v>168.7646504694131</v>
       </c>
       <c r="I41" t="n">
-        <v>65.17772877007123</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="J41" t="n">
-        <v>220.9446937202923</v>
+        <v>220.9446937202927</v>
       </c>
       <c r="K41" t="n">
-        <v>596.5888387830605</v>
+        <v>596.5888387830609</v>
       </c>
       <c r="L41" t="n">
         <v>1110.579553136057</v>
@@ -7426,37 +7426,37 @@
         <v>2230.763553969623</v>
       </c>
       <c r="O41" t="n">
-        <v>2692.872661518181</v>
+        <v>2692.872661518182</v>
       </c>
       <c r="P41" t="n">
         <v>3059.895966984714</v>
       </c>
       <c r="Q41" t="n">
-        <v>3258.886438503561</v>
+        <v>3258.886438503562</v>
       </c>
       <c r="R41" t="n">
-        <v>3258.886438503561</v>
+        <v>3258.886438503562</v>
       </c>
       <c r="S41" t="n">
-        <v>3125.016171960658</v>
+        <v>3125.016171960659</v>
       </c>
       <c r="T41" t="n">
-        <v>2931.698461448589</v>
+        <v>3125.016171960659</v>
       </c>
       <c r="U41" t="n">
-        <v>2931.698461448589</v>
+        <v>2898.871996771631</v>
       </c>
       <c r="V41" t="n">
-        <v>2619.189514962647</v>
+        <v>2898.871996771631</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.788342741474</v>
+        <v>2898.871996771631</v>
       </c>
       <c r="X41" t="n">
-        <v>1917.93360048507</v>
+        <v>2539.017254515228</v>
       </c>
       <c r="Y41" t="n">
-        <v>1551.040754216211</v>
+        <v>2172.12440824637</v>
       </c>
     </row>
     <row r="42">
@@ -7475,19 +7475,19 @@
         <v>580.5764648496686</v>
       </c>
       <c r="E42" t="n">
-        <v>444.1299739605562</v>
+        <v>444.1299739605563</v>
       </c>
       <c r="F42" t="n">
         <v>319.6981678436881</v>
       </c>
       <c r="G42" t="n">
-        <v>199.7098560660561</v>
+        <v>199.7098560660562</v>
       </c>
       <c r="H42" t="n">
         <v>112.103038541258</v>
       </c>
       <c r="I42" t="n">
-        <v>65.17772877007123</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="J42" t="n">
         <v>184.9140344092623</v>
@@ -7499,16 +7499,16 @@
         <v>1014.753126460557</v>
       </c>
       <c r="M42" t="n">
-        <v>1014.753126460557</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="N42" t="n">
-        <v>1688.758564244199</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="O42" t="n">
-        <v>1955.224259090041</v>
+        <v>1711.913111326058</v>
       </c>
       <c r="P42" t="n">
-        <v>2374.228441001583</v>
+        <v>2130.9172932376</v>
       </c>
       <c r="Q42" t="n">
         <v>2374.228441001583</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2729.174479441346</v>
+        <v>401.8846125060102</v>
       </c>
       <c r="C43" t="n">
-        <v>2588.567224317875</v>
+        <v>317.1739283872739</v>
       </c>
       <c r="D43" t="n">
-        <v>2462.531974030929</v>
+        <v>191.1386781003287</v>
       </c>
       <c r="E43" t="n">
-        <v>2462.531974030929</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="F43" t="n">
-        <v>2462.531974030929</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="G43" t="n">
-        <v>2323.935731295449</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="H43" t="n">
-        <v>2198.588038437803</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="I43" t="n">
-        <v>2096.894286401799</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="J43" t="n">
-        <v>2100.283414672149</v>
+        <v>68.56685704042091</v>
       </c>
       <c r="K43" t="n">
-        <v>2217.953628263927</v>
+        <v>186.2370706321998</v>
       </c>
       <c r="L43" t="n">
-        <v>2419.825456403816</v>
+        <v>388.1088987720889</v>
       </c>
       <c r="M43" t="n">
-        <v>2644.336073324957</v>
+        <v>612.6195156932303</v>
       </c>
       <c r="N43" t="n">
-        <v>2865.525748605091</v>
+        <v>833.809190973365</v>
       </c>
       <c r="O43" t="n">
-        <v>3065.54418720273</v>
+        <v>1033.827629571004</v>
       </c>
       <c r="P43" t="n">
-        <v>3221.535414736732</v>
+        <v>1189.818857105006</v>
       </c>
       <c r="Q43" t="n">
-        <v>3258.886438503561</v>
+        <v>1227.169880871837</v>
       </c>
       <c r="R43" t="n">
-        <v>3167.278807960587</v>
+        <v>1227.169880871837</v>
       </c>
       <c r="S43" t="n">
-        <v>3139.521984899673</v>
+        <v>1054.996396188958</v>
       </c>
       <c r="T43" t="n">
-        <v>2933.656938847823</v>
+        <v>849.1313501371092</v>
       </c>
       <c r="U43" t="n">
-        <v>2933.656938847823</v>
+        <v>849.1313501371092</v>
       </c>
       <c r="V43" t="n">
-        <v>2933.656938847823</v>
+        <v>849.1313501371092</v>
       </c>
       <c r="W43" t="n">
-        <v>2933.656938847823</v>
+        <v>595.3988108788268</v>
       </c>
       <c r="X43" t="n">
-        <v>2729.174479441346</v>
+        <v>595.3988108788268</v>
       </c>
       <c r="Y43" t="n">
-        <v>2729.174479441346</v>
+        <v>401.8846125060102</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1596.186613084471</v>
+        <v>1800.16801779126</v>
       </c>
       <c r="C44" t="n">
-        <v>1232.608974397941</v>
+        <v>1436.59037910473</v>
       </c>
       <c r="D44" t="n">
-        <v>1232.608974397941</v>
+        <v>1080.747113131938</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.608974397941</v>
+        <v>707.7614510590217</v>
       </c>
       <c r="F44" t="n">
-        <v>845.3123987384583</v>
+        <v>320.4648753995391</v>
       </c>
       <c r="G44" t="n">
-        <v>461.8811506099252</v>
+        <v>320.4648753995391</v>
       </c>
       <c r="H44" t="n">
-        <v>168.7646504694135</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="I44" t="n">
-        <v>65.17772877007123</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="J44" t="n">
-        <v>220.9446937202924</v>
+        <v>220.9446937202923</v>
       </c>
       <c r="K44" t="n">
-        <v>596.5888387830603</v>
+        <v>596.5888387830605</v>
       </c>
       <c r="L44" t="n">
         <v>1110.579553136057</v>
@@ -7660,40 +7660,40 @@
         <v>1679.580281125535</v>
       </c>
       <c r="N44" t="n">
-        <v>2230.763553969622</v>
+        <v>2230.763553969623</v>
       </c>
       <c r="O44" t="n">
-        <v>2692.872661518181</v>
+        <v>2692.872661518182</v>
       </c>
       <c r="P44" t="n">
         <v>3059.895966984714</v>
       </c>
       <c r="Q44" t="n">
-        <v>3258.886438503561</v>
+        <v>3258.886438503562</v>
       </c>
       <c r="R44" t="n">
-        <v>3258.886438503561</v>
+        <v>3258.886438503562</v>
       </c>
       <c r="S44" t="n">
-        <v>3125.016171960658</v>
+        <v>3258.886438503562</v>
       </c>
       <c r="T44" t="n">
-        <v>3125.016171960658</v>
+        <v>3065.568727991493</v>
       </c>
       <c r="U44" t="n">
-        <v>3125.016171960658</v>
+        <v>2839.424552802465</v>
       </c>
       <c r="V44" t="n">
-        <v>3035.232256731764</v>
+        <v>2526.915606316523</v>
       </c>
       <c r="W44" t="n">
-        <v>2693.831084510591</v>
+        <v>2526.915606316523</v>
       </c>
       <c r="X44" t="n">
-        <v>2333.976342254187</v>
+        <v>2167.060864060119</v>
       </c>
       <c r="Y44" t="n">
-        <v>1967.083495985328</v>
+        <v>1800.16801779126</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1745.977660170073</v>
+        <v>861.319662668096</v>
       </c>
       <c r="C45" t="n">
-        <v>1595.323429730166</v>
+        <v>710.6654322281883</v>
       </c>
       <c r="D45" t="n">
-        <v>1465.234462351646</v>
+        <v>580.5764648496686</v>
       </c>
       <c r="E45" t="n">
-        <v>1328.787971462534</v>
+        <v>444.1299739605563</v>
       </c>
       <c r="F45" t="n">
-        <v>1204.356165345665</v>
+        <v>319.6981678436881</v>
       </c>
       <c r="G45" t="n">
-        <v>1084.367853568034</v>
+        <v>199.7098560660562</v>
       </c>
       <c r="H45" t="n">
-        <v>996.7610360432354</v>
+        <v>112.103038541258</v>
       </c>
       <c r="I45" t="n">
-        <v>949.8357262720486</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="J45" t="n">
-        <v>1069.57203191124</v>
+        <v>184.9140344092623</v>
       </c>
       <c r="K45" t="n">
-        <v>1400.628074326207</v>
+        <v>515.9700768242297</v>
       </c>
       <c r="L45" t="n">
-        <v>1899.411123962534</v>
+        <v>1014.753126460557</v>
       </c>
       <c r="M45" t="n">
-        <v>2544.940252533666</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="N45" t="n">
-        <v>2544.940252533666</v>
+        <v>1178.718257845348</v>
       </c>
       <c r="O45" t="n">
-        <v>3078.135106014376</v>
+        <v>1711.913111326058</v>
       </c>
       <c r="P45" t="n">
-        <v>3258.886438503561</v>
+        <v>2130.9172932376</v>
       </c>
       <c r="Q45" t="n">
-        <v>3258.886438503561</v>
+        <v>2374.228441001583</v>
       </c>
       <c r="R45" t="n">
-        <v>3239.409049202194</v>
+        <v>2354.751051700216</v>
       </c>
       <c r="S45" t="n">
-        <v>3105.806567485321</v>
+        <v>2221.148569983343</v>
       </c>
       <c r="T45" t="n">
-        <v>2929.110975650514</v>
+        <v>2044.452978148536</v>
       </c>
       <c r="U45" t="n">
-        <v>2719.052536681163</v>
+        <v>1834.394539179184</v>
       </c>
       <c r="V45" t="n">
-        <v>2496.512535052229</v>
+        <v>1611.854537550252</v>
       </c>
       <c r="W45" t="n">
-        <v>2266.395289185516</v>
+        <v>1381.737291683538</v>
       </c>
       <c r="X45" t="n">
-        <v>2077.088211535528</v>
+        <v>1192.43021403355</v>
       </c>
       <c r="Y45" t="n">
-        <v>1897.773994611035</v>
+        <v>1013.115997109057</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2451.843563613142</v>
+        <v>331.8202341804881</v>
       </c>
       <c r="C46" t="n">
-        <v>2451.843563613142</v>
+        <v>191.2129790570169</v>
       </c>
       <c r="D46" t="n">
-        <v>2325.808313326196</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="E46" t="n">
-        <v>2235.490529137279</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="F46" t="n">
-        <v>2235.490529137279</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="G46" t="n">
-        <v>2096.894286401799</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="H46" t="n">
-        <v>2096.894286401799</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="I46" t="n">
-        <v>2096.894286401799</v>
+        <v>65.17772877007124</v>
       </c>
       <c r="J46" t="n">
-        <v>2100.283414672149</v>
+        <v>68.56685704042047</v>
       </c>
       <c r="K46" t="n">
-        <v>2217.953628263927</v>
+        <v>186.2370706321989</v>
       </c>
       <c r="L46" t="n">
-        <v>2419.825456403816</v>
+        <v>388.1088987720876</v>
       </c>
       <c r="M46" t="n">
-        <v>2644.336073324957</v>
+        <v>612.6195156932285</v>
       </c>
       <c r="N46" t="n">
-        <v>2865.525748605091</v>
+        <v>833.8091909733629</v>
       </c>
       <c r="O46" t="n">
-        <v>3065.54418720273</v>
+        <v>1033.827629571001</v>
       </c>
       <c r="P46" t="n">
-        <v>3221.535414736732</v>
+        <v>1189.818857105003</v>
       </c>
       <c r="Q46" t="n">
-        <v>3258.886438503561</v>
+        <v>1227.169880871833</v>
       </c>
       <c r="R46" t="n">
-        <v>3167.278807960587</v>
+        <v>1227.169880871833</v>
       </c>
       <c r="S46" t="n">
-        <v>3167.278807960587</v>
+        <v>1227.169880871833</v>
       </c>
       <c r="T46" t="n">
-        <v>2961.413761908737</v>
+        <v>1021.304834819984</v>
       </c>
       <c r="U46" t="n">
-        <v>2705.576102871425</v>
+        <v>765.4671757826716</v>
       </c>
       <c r="V46" t="n">
-        <v>2705.576102871425</v>
+        <v>729.8168919597824</v>
       </c>
       <c r="W46" t="n">
-        <v>2451.843563613142</v>
+        <v>729.8168919597824</v>
       </c>
       <c r="X46" t="n">
-        <v>2451.843563613142</v>
+        <v>525.3344325533052</v>
       </c>
       <c r="Y46" t="n">
-        <v>2451.843563613142</v>
+        <v>331.8202341804881</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>270.4260094517309</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7993,7 +7993,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8066,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>500.3175139373686</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>301.2346582324079</v>
       </c>
       <c r="N5" t="n">
-        <v>312.0396197609155</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8300,22 +8300,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>290.9529148624771</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>251.5450406822918</v>
       </c>
       <c r="M8" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8540,16 +8540,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>153.277245266684</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8768,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>75.75625185912759</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>78.16572689622117</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>74.68967641448027</v>
       </c>
       <c r="M12" t="n">
-        <v>103.4403566022729</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>418.7535555732278</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>73.56537169290593</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>75.75625185912759</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>264.088140451061</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>74.45027463067458</v>
+        <v>240.071619463797</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>66.96053045711326</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.95173274268878</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>75.75625185912759</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>78.16572689622117</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>289.8514386690707</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>485.840455589033</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>66.96053045711326</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>73.56537169290593</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>81.95173274268878</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>75.7562518591276</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>78.16572689622119</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>74.68967641448029</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>518.4251143191944</v>
+        <v>485.8404555890331</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>66.96053045711331</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9500,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>81.95173274268879</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>75.7562518591276</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>78.1657268962212</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>74.6896764144803</v>
+        <v>74.68967641448032</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>74.45027463067464</v>
       </c>
       <c r="N24" t="n">
-        <v>539.699318845138</v>
+        <v>736.4031375491518</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9953,22 +9953,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>75.7562518591276</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>78.1657268962212</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>74.6896764144803</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>240.0716194637971</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>66.96053045711332</v>
       </c>
       <c r="O27" t="n">
-        <v>406.3504329408926</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>75.7562518591276</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>78.1657268962212</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>74.45027463067463</v>
+        <v>240.0716194637971</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>66.96053045711332</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>436.9554965079057</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>75.7562518591276</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>78.1657268962212</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>74.6896764144803</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>240.0716194637971</v>
       </c>
       <c r="N33" t="n">
-        <v>539.699318845138</v>
+        <v>66.96053045711331</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>75.7562518591276</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>78.1657268962212</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>695.4174255791087</v>
+        <v>240.0716194637971</v>
       </c>
       <c r="N36" t="n">
-        <v>66.96053045711329</v>
+        <v>66.96053045711331</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10901,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>75.7562518591276</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>78.1657268962212</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>289.8514386690708</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>240.0716194637971</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>66.96053045711331</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>73.56537169290596</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11147,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>74.45027463067463</v>
+        <v>240.0716194637971</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>66.96053045711331</v>
       </c>
       <c r="O42" t="n">
-        <v>345.0018255112261</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.95173274268879</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11302,7 +11302,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987032</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>240.0716194637971</v>
       </c>
       <c r="N45" t="n">
-        <v>66.96053045711329</v>
+        <v>66.96053045711331</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>256.1424752173355</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.95173274268879</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>109.6381069117025</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>317.5918896476147</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>247.3788110214494</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>179.8511855378677</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>307.2507594525536</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>228.1802891394733</v>
       </c>
       <c r="I14" t="n">
         <v>40.5460064827157</v>
@@ -23548,7 +23548,7 @@
         <v>70.52651787784153</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>87.97718305928703</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.90671274620621</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>132.9788477251109</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>151.2478820599889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.9821144993281</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>294.2511488342063</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>290.2797873134316</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>321.4185639032546</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>65.2654261733469</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>136.9502092458857</v>
       </c>
       <c r="I20" t="n">
-        <v>40.54600648271571</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>109.638106911703</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>317.5918896476147</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>228.1802891394733</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.52651787784154</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>128.5231895420028</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>334.4847522546497</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>319.5816714958662</v>
       </c>
       <c r="E26" t="n">
-        <v>336.5526436349877</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>195.7208634061928</v>
+        <v>116.8274297507229</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>99.82840206027618</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>330.5207559889722</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>106.4980207550375</v>
+        <v>106.4980207550379</v>
       </c>
       <c r="D28" t="n">
-        <v>92.07173596687718</v>
+        <v>92.07173596687767</v>
       </c>
       <c r="E28" t="n">
-        <v>91.9981780197563</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>93.74762943952356</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>104.5071184909261</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>91.39105411187089</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>67.97365269844438</v>
+        <v>67.97365269844487</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>12.23039321997496</v>
       </c>
       <c r="V28" t="n">
-        <v>50.39297093414072</v>
+        <v>201.3145057277513</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>218.4920520485014</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>334.4847522546497</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>274.791333719273</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>257.4821733219075</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>93.61399379024576</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>191.1795716199386</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>276.6806952038836</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>305.2839986817622</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>121.3508925047551</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>69.84630302467846</v>
       </c>
       <c r="D31" t="n">
-        <v>92.07173596687718</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.9981780197563</v>
+        <v>91.99817801975634</v>
       </c>
       <c r="F31" t="n">
-        <v>93.74762943952356</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>104.5071184909261</v>
       </c>
       <c r="H31" t="n">
-        <v>91.39105411187089</v>
+        <v>91.39105411187093</v>
       </c>
       <c r="I31" t="n">
-        <v>67.97365269844438</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>171.1032337741321</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>169.7344729952135</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.54009918442307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>109.6381069117015</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>317.5918896476147</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>109.6381069117024</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>55.48460687493798</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>158.5037009371281</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>228.1802891394733</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>40.54600648271567</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>70.52651787784153</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>301.2188718065375</v>
       </c>
     </row>
     <row r="36">
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>297.9368163000313</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>129.2931802592858</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>3.599360317795913</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>129.379487407315</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>294.2511488342063</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>367.1879140718487</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>228.3648004877106</v>
       </c>
       <c r="D41" t="n">
-        <v>352.2848333130647</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>123.7648705926578</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>290.1853351391065</v>
+        <v>290.185335139106</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>191.3845334069477</v>
       </c>
       <c r="U41" t="n">
-        <v>223.8827334371376</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>309.3838570210821</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.9871604989607</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.0540543219541</v>
+        <v>154.0540543219536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>55.33760529468715</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>124.7013398369553</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>126.4507912567226</v>
+        <v>126.4507912567221</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.2102803081247</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>124.0942159290695</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>100.676814515643</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.69155423754428</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9724950057451</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>253.279282446939</v>
+        <v>253.2792824469385</v>
       </c>
       <c r="V43" t="n">
-        <v>234.0176675449498</v>
+        <v>234.0176675449494</v>
       </c>
       <c r="W43" t="n">
-        <v>251.1952138656999</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>202.4376348124121</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.5790563890889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>367.1879140718487</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>352.2848333130647</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>369.2558054521867</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>379.5969356472478</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>37.45105997593333</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>102.5510524823489</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>132.5315638774747</v>
       </c>
       <c r="T44" t="n">
-        <v>191.3845334069481</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>223.8827334371376</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>220.4977809444777</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.9871604989612</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>154.0540543219541</v>
       </c>
       <c r="C46" t="n">
-        <v>139.2011825722365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>35.28673348992757</v>
+        <v>124.7013398369553</v>
       </c>
       <c r="F46" t="n">
         <v>126.4507912567226</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.2102803081251</v>
       </c>
       <c r="H46" t="n">
         <v>124.0942159290699</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.69155423754471</v>
       </c>
       <c r="S46" t="n">
         <v>170.45174983605</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>234.0176675449498</v>
+        <v>198.7238865602895</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>251.1952138656999</v>
       </c>
       <c r="X46" t="n">
-        <v>202.4376348124125</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>191.5790563890889</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674107.7990461675</v>
+        <v>674107.7990461676</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674107.7990461676</v>
+        <v>674107.7990461675</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674107.7990461675</v>
+        <v>674107.7990461676</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>626236.8490596302</v>
+        <v>626236.8490596293</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>626236.8490596302</v>
+        <v>626236.8490596303</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674107.7990461675</v>
+        <v>674107.7990461676</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>572809.1781970419</v>
+        <v>572809.1781970427</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>572809.178197042</v>
+        <v>572809.1781970421</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595096.1877080773</v>
+        <v>595096.1877080776</v>
       </c>
       <c r="C2" t="n">
         <v>595096.1877080776</v>
       </c>
       <c r="D2" t="n">
-        <v>595096.1877080776</v>
+        <v>595096.1877080774</v>
       </c>
       <c r="E2" t="n">
-        <v>567039.9938340265</v>
+        <v>567039.9938340264</v>
       </c>
       <c r="F2" t="n">
         <v>567039.9938340264</v>
@@ -26331,28 +26331,28 @@
         <v>567039.9938340265</v>
       </c>
       <c r="H2" t="n">
-        <v>567039.9938340264</v>
+        <v>567039.9938340277</v>
       </c>
       <c r="I2" t="n">
+        <v>567039.9938340274</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524344.281683872</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524344.2816838722</v>
+      </c>
+      <c r="L2" t="n">
         <v>567039.9938340278</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524344.2816838728</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524344.2816838727</v>
-      </c>
-      <c r="L2" t="n">
-        <v>567039.9938340265</v>
       </c>
       <c r="M2" t="n">
         <v>567039.9938340264</v>
       </c>
       <c r="N2" t="n">
-        <v>567039.9938340279</v>
+        <v>567039.9938340277</v>
       </c>
       <c r="O2" t="n">
-        <v>476692.5752388607</v>
+        <v>476692.5752388618</v>
       </c>
       <c r="P2" t="n">
         <v>476692.5752388608</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166162.1587125756</v>
+        <v>166162.1587125755</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204343.47116531</v>
+        <v>204343.4711653097</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.510081114654895e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>23441.50734594735</v>
+        <v>23441.50734594736</v>
       </c>
       <c r="M3" t="n">
-        <v>55649.61649039693</v>
+        <v>55649.61649039699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>188683.9728110359</v>
       </c>
       <c r="D4" t="n">
-        <v>188683.972811036</v>
+        <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
         <v>132504.121790424</v>
@@ -26441,10 +26441,10 @@
         <v>132504.121790424</v>
       </c>
       <c r="J4" t="n">
-        <v>102893.2280318809</v>
+        <v>102893.2280318804</v>
       </c>
       <c r="K4" t="n">
-        <v>102893.2280318809</v>
+        <v>102893.2280318808</v>
       </c>
       <c r="L4" t="n">
         <v>132504.121790424</v>
@@ -26456,7 +26456,7 @@
         <v>132504.121790424</v>
       </c>
       <c r="O4" t="n">
-        <v>69845.18770422031</v>
+        <v>69845.18770422079</v>
       </c>
       <c r="P4" t="n">
         <v>69845.18770422031</v>
@@ -26478,13 +26478,13 @@
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>57928.63007547584</v>
+        <v>57928.63007547585</v>
       </c>
       <c r="F5" t="n">
-        <v>57928.63007547584</v>
+        <v>57928.63007547585</v>
       </c>
       <c r="G5" t="n">
-        <v>57928.63007547584</v>
+        <v>57928.63007547585</v>
       </c>
       <c r="H5" t="n">
         <v>57928.63007547584</v>
@@ -26493,22 +26493,22 @@
         <v>57928.63007547584</v>
       </c>
       <c r="J5" t="n">
-        <v>55465.24997414278</v>
+        <v>55465.24997414274</v>
       </c>
       <c r="K5" t="n">
-        <v>55465.24997414278</v>
+        <v>55465.24997414277</v>
       </c>
       <c r="L5" t="n">
-        <v>57928.63007547586</v>
+        <v>57928.63007547584</v>
       </c>
       <c r="M5" t="n">
-        <v>57928.63007547585</v>
+        <v>57928.63007547584</v>
       </c>
       <c r="N5" t="n">
         <v>57928.63007547584</v>
       </c>
       <c r="O5" t="n">
-        <v>52715.92786333268</v>
+        <v>52715.92786333272</v>
       </c>
       <c r="P5" t="n">
         <v>52715.92786333268</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138630.9516281232</v>
+        <v>138630.9516281236</v>
       </c>
       <c r="C6" t="n">
-        <v>336826.7576198686</v>
+        <v>336826.7576198685</v>
       </c>
       <c r="D6" t="n">
-        <v>336826.7576198685</v>
+        <v>336826.7576198683</v>
       </c>
       <c r="E6" t="n">
-        <v>210445.0832555512</v>
+        <v>210360.0644862357</v>
       </c>
       <c r="F6" t="n">
-        <v>376607.2419681266</v>
+        <v>376522.2231988112</v>
       </c>
       <c r="G6" t="n">
-        <v>376607.2419681267</v>
+        <v>376522.2231988113</v>
       </c>
       <c r="H6" t="n">
-        <v>376607.2419681266</v>
+        <v>376522.2231988125</v>
       </c>
       <c r="I6" t="n">
-        <v>376607.241968128</v>
+        <v>376522.2231988123</v>
       </c>
       <c r="J6" t="n">
-        <v>161642.3325125391</v>
+        <v>161427.9327973144</v>
       </c>
       <c r="K6" t="n">
-        <v>365985.8036778491</v>
+        <v>365771.4039626234</v>
       </c>
       <c r="L6" t="n">
-        <v>353165.7346221794</v>
+        <v>353080.7158528653</v>
       </c>
       <c r="M6" t="n">
-        <v>320957.6254777297</v>
+        <v>320872.6067084142</v>
       </c>
       <c r="N6" t="n">
-        <v>376607.2419681281</v>
+        <v>376522.2231988125</v>
       </c>
       <c r="O6" t="n">
-        <v>354131.4596713078</v>
+        <v>353772.6608456441</v>
       </c>
       <c r="P6" t="n">
-        <v>354131.4596713078</v>
+        <v>353772.6608456435</v>
       </c>
     </row>
   </sheetData>
@@ -26709,22 +26709,22 @@
         <v>91.30693018206736</v>
       </c>
       <c r="J2" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="K2" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="L2" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="M2" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="N2" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="O2" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="P2" t="n">
         <v>29.3018841824342</v>
@@ -26755,31 +26755,31 @@
         <v>32.91164663970152</v>
       </c>
       <c r="H3" t="n">
-        <v>32.91164663970146</v>
+        <v>32.91164663970143</v>
       </c>
       <c r="I3" t="n">
-        <v>32.91164663970144</v>
+        <v>32.91164663970142</v>
       </c>
       <c r="J3" t="n">
-        <v>32.91164663970144</v>
+        <v>32.91164663970142</v>
       </c>
       <c r="K3" t="n">
-        <v>32.91164663970144</v>
+        <v>32.91164663970142</v>
       </c>
       <c r="L3" t="n">
-        <v>32.91164663970144</v>
+        <v>32.91164663970143</v>
       </c>
       <c r="M3" t="n">
-        <v>32.91164663970144</v>
+        <v>32.91164663970143</v>
       </c>
       <c r="N3" t="n">
-        <v>32.91164663970144</v>
+        <v>32.91164663970143</v>
       </c>
       <c r="O3" t="n">
-        <v>32.91164663970144</v>
+        <v>32.91164663970143</v>
       </c>
       <c r="P3" t="n">
-        <v>32.91164663970144</v>
+        <v>32.91164663970143</v>
       </c>
     </row>
     <row r="4">
@@ -26819,19 +26819,19 @@
         <v>814.7216096258903</v>
       </c>
       <c r="L4" t="n">
-        <v>814.7216096258906</v>
+        <v>814.7216096258903</v>
       </c>
       <c r="M4" t="n">
-        <v>814.7216096258904</v>
+        <v>814.7216096258903</v>
       </c>
       <c r="N4" t="n">
         <v>814.7216096258903</v>
       </c>
       <c r="O4" t="n">
-        <v>814.7216096258903</v>
+        <v>814.7216096258904</v>
       </c>
       <c r="P4" t="n">
-        <v>814.7216096258903</v>
+        <v>814.7216096258904</v>
       </c>
     </row>
   </sheetData>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.0050459996332</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.387601393318619e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>29.30188418243419</v>
+        <v>29.30188418243421</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>223.3094833565955</v>
+        <v>223.3094833565953</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>223.3094833565951</v>
+        <v>223.3094833565954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.0050459996332</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.387601393318619e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>223.3094833565955</v>
+        <v>223.3094833565953</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>184.0823689163359</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>276.8290585598261</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27548,19 +27548,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>162.371170411978</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>135.7503298808102</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>31.73789671649541</v>
+        <v>187.3289485527256</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27675,16 +27675,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27788,10 +27788,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>97.94383194786076</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27833,16 +27833,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>66.47955495861618</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>225.7504725554551</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>132.6518145025336</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>90.47296222541937</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>59.49453538364725</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28848,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>29.30188418243419</v>
+        <v>29.3018841824342</v>
       </c>
       <c r="S20" t="n">
         <v>91.30693018206736</v>
@@ -29085,7 +29085,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243421</v>
       </c>
       <c r="S23" t="n">
         <v>91.30693018206736</v>
@@ -29222,7 +29222,7 @@
         <v>91.30693018206736</v>
       </c>
       <c r="K25" t="n">
-        <v>91.30693018206736</v>
+        <v>91.30693018206804</v>
       </c>
       <c r="L25" t="n">
         <v>91.30693018206736</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="C26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="D26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="E26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="F26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="G26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="H26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="I26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243421</v>
       </c>
       <c r="S26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="T26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="U26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="V26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="W26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="X26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="Y26" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="C28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="D28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="E28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="F28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="G28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="H28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="I28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="J28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="L28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="M28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="N28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="O28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="P28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="R28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="S28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="T28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="U28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="V28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="W28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="X28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963273</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="C29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="D29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="E29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="F29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="G29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="H29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="I29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29559,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243421</v>
       </c>
       <c r="S29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="T29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="U29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="V29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="W29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="X29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="Y29" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="C31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="D31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="E31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="F31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="G31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="H31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="I31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="J31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="L31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="M31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="N31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="O31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="P31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="R31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="S31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="T31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="U31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="V31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="W31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="X31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.00504599963321</v>
+        <v>62.00504599963317</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="C32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="D32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="E32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="F32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="G32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="H32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="I32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>29.3018841824342</v>
       </c>
       <c r="S32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="T32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="U32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="V32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="W32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="X32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="Y32" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="C34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="D34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="E34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="F34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="G34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="H34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="I34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="J34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="K34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="L34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="M34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="N34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="O34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="P34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="Q34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="R34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="S34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="T34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="U34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="V34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="W34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="X34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="Y34" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="C35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="D35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="E35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="F35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="G35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="H35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="I35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>29.3018841824342</v>
       </c>
       <c r="S35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="T35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="U35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="V35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="W35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="X35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="Y35" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="C37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="D37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="E37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="F37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="G37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="H37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="I37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="J37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="K37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="L37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="M37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="N37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="O37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="P37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="Q37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="R37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="S37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="T37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="U37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="V37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="W37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="X37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="Y37" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="C38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="D38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="E38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="F38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="G38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="H38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="I38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>29.3018841824342</v>
       </c>
       <c r="S38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="T38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="U38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="V38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="W38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="X38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="Y38" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="C40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="D40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="E40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="F40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="G40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="H40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="I40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="J40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="K40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="L40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="M40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206753</v>
       </c>
       <c r="N40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="O40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="P40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="Q40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="R40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="S40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="T40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="U40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="V40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="W40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="X40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
       <c r="Y40" t="n">
-        <v>91.3069301820674</v>
+        <v>91.30693018206738</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="C41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="D41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="E41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="F41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="G41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="H41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="I41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="S41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="T41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="U41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="V41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="W41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="X41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="C43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="D43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="E43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="F43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="G43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="H43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="I43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="J43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="K43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="L43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="M43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="N43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="O43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="P43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="R43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="S43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="T43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="U43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="V43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="W43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="X43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.3018841824342</v>
+        <v>29.30188418243464</v>
       </c>
     </row>
     <row r="44">
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1323081271947796</v>
+        <v>0.1323081271947795</v>
       </c>
       <c r="H20" t="n">
-        <v>1.355000607633537</v>
+        <v>1.355000607633536</v>
       </c>
       <c r="I20" t="n">
-        <v>5.100809073676746</v>
+        <v>5.100809073676743</v>
       </c>
       <c r="J20" t="n">
-        <v>11.22948691049794</v>
+        <v>11.22948691049793</v>
       </c>
       <c r="K20" t="n">
-        <v>16.83008993465296</v>
+        <v>16.83008993465295</v>
       </c>
       <c r="L20" t="n">
-        <v>20.87921478229021</v>
+        <v>20.87921478229019</v>
       </c>
       <c r="M20" t="n">
-        <v>23.23214943929037</v>
+        <v>23.23214943929035</v>
       </c>
       <c r="N20" t="n">
-        <v>23.60806990568254</v>
+        <v>23.60806990568252</v>
       </c>
       <c r="O20" t="n">
-        <v>22.29243096588944</v>
+        <v>22.29243096588943</v>
       </c>
       <c r="P20" t="n">
-        <v>19.02607407576832</v>
+        <v>19.0260740757683</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.28778927060527</v>
+        <v>14.28778927060526</v>
       </c>
       <c r="R20" t="n">
-        <v>8.311100394899084</v>
+        <v>8.311100394899077</v>
       </c>
       <c r="S20" t="n">
-        <v>3.014971448451044</v>
+        <v>3.014971448451041</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5791788267951481</v>
+        <v>0.5791788267951476</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01058465017558237</v>
+        <v>0.01058465017558236</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07079108899860315</v>
+        <v>0.07079108899860308</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6836928858549305</v>
+        <v>0.6836928858549298</v>
       </c>
       <c r="I21" t="n">
-        <v>2.437324774732609</v>
+        <v>2.437324774732606</v>
       </c>
       <c r="J21" t="n">
-        <v>6.688205474205748</v>
+        <v>6.688205474205742</v>
       </c>
       <c r="K21" t="n">
-        <v>11.43120843711216</v>
+        <v>11.43120843711215</v>
       </c>
       <c r="L21" t="n">
-        <v>15.37067044243793</v>
+        <v>15.37067044243792</v>
       </c>
       <c r="M21" t="n">
-        <v>17.93684741863729</v>
+        <v>17.93684741863728</v>
       </c>
       <c r="N21" t="n">
-        <v>18.41158239705337</v>
+        <v>18.41158239705335</v>
       </c>
       <c r="O21" t="n">
-        <v>16.8430008987159</v>
+        <v>16.84300089871588</v>
       </c>
       <c r="P21" t="n">
-        <v>13.5179931264087</v>
+        <v>13.51799312640869</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.036420413225201</v>
+        <v>9.036420413225194</v>
       </c>
       <c r="R21" t="n">
-        <v>4.395257262562397</v>
+        <v>4.395257262562393</v>
       </c>
       <c r="S21" t="n">
-        <v>1.314913429425807</v>
+        <v>1.314913429425806</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2853377666215626</v>
+        <v>0.2853377666215623</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004657308486750208</v>
+        <v>0.004657308486750204</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05934887098962557</v>
+        <v>0.05934887098962553</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5276654166168532</v>
+        <v>0.5276654166168527</v>
       </c>
       <c r="I22" t="n">
-        <v>1.784782411215286</v>
+        <v>1.784782411215285</v>
       </c>
       <c r="J22" t="n">
-        <v>4.195965178966528</v>
+        <v>4.195965178966524</v>
       </c>
       <c r="K22" t="n">
-        <v>6.895259738612861</v>
+        <v>6.895259738612855</v>
       </c>
       <c r="L22" t="n">
-        <v>8.823558510584879</v>
+        <v>8.823558510584872</v>
       </c>
       <c r="M22" t="n">
-        <v>9.303205295219215</v>
+        <v>9.303205295219207</v>
       </c>
       <c r="N22" t="n">
-        <v>9.081995866985164</v>
+        <v>9.081995866985157</v>
       </c>
       <c r="O22" t="n">
-        <v>8.388693146788171</v>
+        <v>8.388693146788164</v>
       </c>
       <c r="P22" t="n">
-        <v>7.177976178599804</v>
+        <v>7.177976178599797</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.96965864259492</v>
+        <v>4.969658642594916</v>
       </c>
       <c r="R22" t="n">
-        <v>2.668541053769891</v>
+        <v>2.668541053769889</v>
       </c>
       <c r="S22" t="n">
-        <v>1.034288960791929</v>
+        <v>1.034288960791928</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2535815396829456</v>
+        <v>0.2535815396829453</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003237211144888672</v>
+        <v>0.003237211144888669</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1323081271947796</v>
+        <v>0.1323081271947795</v>
       </c>
       <c r="H23" t="n">
-        <v>1.355000607633537</v>
+        <v>1.355000607633535</v>
       </c>
       <c r="I23" t="n">
-        <v>5.100809073676745</v>
+        <v>5.10080907367674</v>
       </c>
       <c r="J23" t="n">
-        <v>11.22948691049793</v>
+        <v>11.22948691049792</v>
       </c>
       <c r="K23" t="n">
-        <v>16.83008993465296</v>
+        <v>16.83008993465294</v>
       </c>
       <c r="L23" t="n">
-        <v>20.87921478229019</v>
+        <v>20.87921478229018</v>
       </c>
       <c r="M23" t="n">
-        <v>23.23214943929036</v>
+        <v>23.23214943929034</v>
       </c>
       <c r="N23" t="n">
-        <v>23.60806990568253</v>
+        <v>23.60806990568251</v>
       </c>
       <c r="O23" t="n">
-        <v>22.29243096588943</v>
+        <v>22.29243096588942</v>
       </c>
       <c r="P23" t="n">
-        <v>19.02607407576831</v>
+        <v>19.0260740757683</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.28778927060526</v>
+        <v>14.28778927060525</v>
       </c>
       <c r="R23" t="n">
-        <v>8.31110039489908</v>
+        <v>8.311100394899073</v>
       </c>
       <c r="S23" t="n">
-        <v>3.014971448451043</v>
+        <v>3.01497144845104</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5791788267951479</v>
+        <v>0.5791788267951474</v>
       </c>
       <c r="U23" t="n">
         <v>0.01058465017558236</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0707910889986031</v>
+        <v>0.07079108899860305</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6836928858549302</v>
+        <v>0.6836928858549296</v>
       </c>
       <c r="I24" t="n">
-        <v>2.437324774732607</v>
+        <v>2.437324774732605</v>
       </c>
       <c r="J24" t="n">
-        <v>6.688205474205745</v>
+        <v>6.688205474205739</v>
       </c>
       <c r="K24" t="n">
-        <v>11.43120843711215</v>
+        <v>11.43120843711214</v>
       </c>
       <c r="L24" t="n">
-        <v>15.37067044243793</v>
+        <v>15.37067044243791</v>
       </c>
       <c r="M24" t="n">
-        <v>17.93684741863729</v>
+        <v>17.93684741863727</v>
       </c>
       <c r="N24" t="n">
-        <v>18.41158239705336</v>
+        <v>18.41158239705334</v>
       </c>
       <c r="O24" t="n">
-        <v>16.84300089871589</v>
+        <v>16.84300089871588</v>
       </c>
       <c r="P24" t="n">
-        <v>13.5179931264087</v>
+        <v>13.51799312640868</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.036420413225198</v>
+        <v>9.036420413225191</v>
       </c>
       <c r="R24" t="n">
-        <v>4.395257262562395</v>
+        <v>4.395257262562391</v>
       </c>
       <c r="S24" t="n">
-        <v>1.314913429425807</v>
+        <v>1.314913429425806</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2853377666215624</v>
+        <v>0.2853377666215622</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004657308486750207</v>
+        <v>0.004657308486750202</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05934887098962555</v>
+        <v>0.0593488709896255</v>
       </c>
       <c r="H25" t="n">
-        <v>0.527665416616853</v>
+        <v>0.5276654166168525</v>
       </c>
       <c r="I25" t="n">
-        <v>1.784782411215285</v>
+        <v>1.784782411215284</v>
       </c>
       <c r="J25" t="n">
-        <v>4.195965178966526</v>
+        <v>4.195965178966523</v>
       </c>
       <c r="K25" t="n">
-        <v>6.895259738612858</v>
+        <v>6.895259738612852</v>
       </c>
       <c r="L25" t="n">
-        <v>8.823558510584876</v>
+        <v>8.823558510584869</v>
       </c>
       <c r="M25" t="n">
-        <v>9.303205295219211</v>
+        <v>9.303205295219204</v>
       </c>
       <c r="N25" t="n">
-        <v>9.08199586698516</v>
+        <v>9.081995866985151</v>
       </c>
       <c r="O25" t="n">
-        <v>8.388693146788167</v>
+        <v>8.38869314678816</v>
       </c>
       <c r="P25" t="n">
-        <v>7.1779761785998</v>
+        <v>7.177976178599794</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.969658642594918</v>
+        <v>4.969658642594914</v>
       </c>
       <c r="R25" t="n">
-        <v>2.66854105376989</v>
+        <v>2.668541053769887</v>
       </c>
       <c r="S25" t="n">
-        <v>1.034288960791929</v>
+        <v>1.034288960791928</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2535815396829454</v>
+        <v>0.2535815396829452</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00323721114488867</v>
+        <v>0.003237211144888667</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1323081271947796</v>
+        <v>0.1323081271947795</v>
       </c>
       <c r="H26" t="n">
-        <v>1.355000607633537</v>
+        <v>1.355000607633535</v>
       </c>
       <c r="I26" t="n">
-        <v>5.100809073676745</v>
+        <v>5.10080907367674</v>
       </c>
       <c r="J26" t="n">
-        <v>11.22948691049793</v>
+        <v>11.22948691049792</v>
       </c>
       <c r="K26" t="n">
-        <v>16.83008993465296</v>
+        <v>16.83008993465294</v>
       </c>
       <c r="L26" t="n">
-        <v>20.87921478229019</v>
+        <v>20.87921478229018</v>
       </c>
       <c r="M26" t="n">
-        <v>23.23214943929036</v>
+        <v>23.23214943929034</v>
       </c>
       <c r="N26" t="n">
-        <v>23.60806990568253</v>
+        <v>23.60806990568251</v>
       </c>
       <c r="O26" t="n">
-        <v>22.29243096588943</v>
+        <v>22.29243096588942</v>
       </c>
       <c r="P26" t="n">
-        <v>19.02607407576831</v>
+        <v>19.0260740757683</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.28778927060526</v>
+        <v>14.28778927060525</v>
       </c>
       <c r="R26" t="n">
-        <v>8.31110039489908</v>
+        <v>8.311100394899073</v>
       </c>
       <c r="S26" t="n">
-        <v>3.014971448451043</v>
+        <v>3.01497144845104</v>
       </c>
       <c r="T26" t="n">
-        <v>0.5791788267951479</v>
+        <v>0.5791788267951474</v>
       </c>
       <c r="U26" t="n">
         <v>0.01058465017558236</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0707910889986031</v>
+        <v>0.07079108899860305</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6836928858549302</v>
+        <v>0.6836928858549296</v>
       </c>
       <c r="I27" t="n">
-        <v>2.437324774732607</v>
+        <v>2.437324774732605</v>
       </c>
       <c r="J27" t="n">
-        <v>6.688205474205745</v>
+        <v>6.688205474205739</v>
       </c>
       <c r="K27" t="n">
-        <v>11.43120843711215</v>
+        <v>11.43120843711214</v>
       </c>
       <c r="L27" t="n">
-        <v>15.37067044243793</v>
+        <v>15.37067044243791</v>
       </c>
       <c r="M27" t="n">
-        <v>17.93684741863729</v>
+        <v>17.93684741863727</v>
       </c>
       <c r="N27" t="n">
-        <v>18.41158239705336</v>
+        <v>18.41158239705334</v>
       </c>
       <c r="O27" t="n">
-        <v>16.84300089871589</v>
+        <v>16.84300089871588</v>
       </c>
       <c r="P27" t="n">
-        <v>13.5179931264087</v>
+        <v>13.51799312640868</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.036420413225198</v>
+        <v>9.036420413225191</v>
       </c>
       <c r="R27" t="n">
-        <v>4.395257262562395</v>
+        <v>4.395257262562391</v>
       </c>
       <c r="S27" t="n">
-        <v>1.314913429425807</v>
+        <v>1.314913429425806</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2853377666215624</v>
+        <v>0.2853377666215622</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004657308486750207</v>
+        <v>0.004657308486750202</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05934887098962555</v>
+        <v>0.0593488709896255</v>
       </c>
       <c r="H28" t="n">
-        <v>0.527665416616853</v>
+        <v>0.5276654166168525</v>
       </c>
       <c r="I28" t="n">
-        <v>1.784782411215285</v>
+        <v>1.784782411215284</v>
       </c>
       <c r="J28" t="n">
-        <v>4.195965178966526</v>
+        <v>4.195965178966523</v>
       </c>
       <c r="K28" t="n">
-        <v>6.895259738612858</v>
+        <v>6.895259738612852</v>
       </c>
       <c r="L28" t="n">
-        <v>8.823558510584876</v>
+        <v>8.823558510584869</v>
       </c>
       <c r="M28" t="n">
-        <v>9.303205295219211</v>
+        <v>9.303205295219204</v>
       </c>
       <c r="N28" t="n">
-        <v>9.08199586698516</v>
+        <v>9.081995866985151</v>
       </c>
       <c r="O28" t="n">
-        <v>8.388693146788167</v>
+        <v>8.38869314678816</v>
       </c>
       <c r="P28" t="n">
-        <v>7.1779761785998</v>
+        <v>7.177976178599794</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.969658642594918</v>
+        <v>4.969658642594914</v>
       </c>
       <c r="R28" t="n">
-        <v>2.66854105376989</v>
+        <v>2.668541053769887</v>
       </c>
       <c r="S28" t="n">
-        <v>1.034288960791929</v>
+        <v>1.034288960791928</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2535815396829454</v>
+        <v>0.2535815396829452</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00323721114488867</v>
+        <v>0.003237211144888667</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1323081271947796</v>
+        <v>0.1323081271947795</v>
       </c>
       <c r="H29" t="n">
-        <v>1.355000607633537</v>
+        <v>1.355000607633535</v>
       </c>
       <c r="I29" t="n">
-        <v>5.100809073676745</v>
+        <v>5.10080907367674</v>
       </c>
       <c r="J29" t="n">
-        <v>11.22948691049793</v>
+        <v>11.22948691049792</v>
       </c>
       <c r="K29" t="n">
-        <v>16.83008993465296</v>
+        <v>16.83008993465294</v>
       </c>
       <c r="L29" t="n">
-        <v>20.87921478229019</v>
+        <v>20.87921478229018</v>
       </c>
       <c r="M29" t="n">
-        <v>23.23214943929036</v>
+        <v>23.23214943929034</v>
       </c>
       <c r="N29" t="n">
-        <v>23.60806990568253</v>
+        <v>23.60806990568251</v>
       </c>
       <c r="O29" t="n">
-        <v>22.29243096588943</v>
+        <v>22.29243096588942</v>
       </c>
       <c r="P29" t="n">
-        <v>19.02607407576831</v>
+        <v>19.0260740757683</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.28778927060526</v>
+        <v>14.28778927060525</v>
       </c>
       <c r="R29" t="n">
-        <v>8.31110039489908</v>
+        <v>8.311100394899073</v>
       </c>
       <c r="S29" t="n">
-        <v>3.014971448451043</v>
+        <v>3.01497144845104</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5791788267951479</v>
+        <v>0.5791788267951474</v>
       </c>
       <c r="U29" t="n">
         <v>0.01058465017558236</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0707910889986031</v>
+        <v>0.07079108899860305</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6836928858549302</v>
+        <v>0.6836928858549296</v>
       </c>
       <c r="I30" t="n">
-        <v>2.437324774732607</v>
+        <v>2.437324774732605</v>
       </c>
       <c r="J30" t="n">
-        <v>6.688205474205745</v>
+        <v>6.688205474205739</v>
       </c>
       <c r="K30" t="n">
-        <v>11.43120843711215</v>
+        <v>11.43120843711214</v>
       </c>
       <c r="L30" t="n">
-        <v>15.37067044243793</v>
+        <v>15.37067044243791</v>
       </c>
       <c r="M30" t="n">
-        <v>17.93684741863729</v>
+        <v>17.93684741863727</v>
       </c>
       <c r="N30" t="n">
-        <v>18.41158239705336</v>
+        <v>18.41158239705334</v>
       </c>
       <c r="O30" t="n">
-        <v>16.84300089871589</v>
+        <v>16.84300089871588</v>
       </c>
       <c r="P30" t="n">
-        <v>13.5179931264087</v>
+        <v>13.51799312640868</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.036420413225198</v>
+        <v>9.036420413225191</v>
       </c>
       <c r="R30" t="n">
-        <v>4.395257262562395</v>
+        <v>4.395257262562391</v>
       </c>
       <c r="S30" t="n">
-        <v>1.314913429425807</v>
+        <v>1.314913429425806</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2853377666215624</v>
+        <v>0.2853377666215622</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004657308486750207</v>
+        <v>0.004657308486750202</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05934887098962555</v>
+        <v>0.0593488709896255</v>
       </c>
       <c r="H31" t="n">
-        <v>0.527665416616853</v>
+        <v>0.5276654166168525</v>
       </c>
       <c r="I31" t="n">
-        <v>1.784782411215285</v>
+        <v>1.784782411215284</v>
       </c>
       <c r="J31" t="n">
-        <v>4.195965178966526</v>
+        <v>4.195965178966523</v>
       </c>
       <c r="K31" t="n">
-        <v>6.895259738612858</v>
+        <v>6.895259738612852</v>
       </c>
       <c r="L31" t="n">
-        <v>8.823558510584876</v>
+        <v>8.823558510584869</v>
       </c>
       <c r="M31" t="n">
-        <v>9.303205295219211</v>
+        <v>9.303205295219204</v>
       </c>
       <c r="N31" t="n">
-        <v>9.08199586698516</v>
+        <v>9.081995866985151</v>
       </c>
       <c r="O31" t="n">
-        <v>8.388693146788167</v>
+        <v>8.38869314678816</v>
       </c>
       <c r="P31" t="n">
-        <v>7.1779761785998</v>
+        <v>7.177976178599794</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.969658642594918</v>
+        <v>4.969658642594914</v>
       </c>
       <c r="R31" t="n">
-        <v>2.66854105376989</v>
+        <v>2.668541053769887</v>
       </c>
       <c r="S31" t="n">
-        <v>1.034288960791929</v>
+        <v>1.034288960791928</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2535815396829454</v>
+        <v>0.2535815396829452</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00323721114488867</v>
+        <v>0.003237211144888667</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1323081271947796</v>
+        <v>0.1323081271947795</v>
       </c>
       <c r="H32" t="n">
-        <v>1.355000607633537</v>
+        <v>1.355000607633536</v>
       </c>
       <c r="I32" t="n">
-        <v>5.100809073676745</v>
+        <v>5.100809073676743</v>
       </c>
       <c r="J32" t="n">
         <v>11.22948691049793</v>
       </c>
       <c r="K32" t="n">
-        <v>16.83008993465296</v>
+        <v>16.83008993465295</v>
       </c>
       <c r="L32" t="n">
         <v>20.87921478229019</v>
       </c>
       <c r="M32" t="n">
-        <v>23.23214943929036</v>
+        <v>23.23214943929035</v>
       </c>
       <c r="N32" t="n">
-        <v>23.60806990568253</v>
+        <v>23.60806990568252</v>
       </c>
       <c r="O32" t="n">
         <v>22.29243096588943</v>
       </c>
       <c r="P32" t="n">
-        <v>19.02607407576831</v>
+        <v>19.0260740757683</v>
       </c>
       <c r="Q32" t="n">
         <v>14.28778927060526</v>
       </c>
       <c r="R32" t="n">
-        <v>8.31110039489908</v>
+        <v>8.311100394899077</v>
       </c>
       <c r="S32" t="n">
-        <v>3.014971448451043</v>
+        <v>3.014971448451041</v>
       </c>
       <c r="T32" t="n">
-        <v>0.5791788267951479</v>
+        <v>0.5791788267951476</v>
       </c>
       <c r="U32" t="n">
         <v>0.01058465017558236</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0707910889986031</v>
+        <v>0.07079108899860308</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6836928858549302</v>
+        <v>0.6836928858549298</v>
       </c>
       <c r="I33" t="n">
-        <v>2.437324774732607</v>
+        <v>2.437324774732606</v>
       </c>
       <c r="J33" t="n">
-        <v>6.688205474205745</v>
+        <v>6.688205474205742</v>
       </c>
       <c r="K33" t="n">
         <v>11.43120843711215</v>
       </c>
       <c r="L33" t="n">
-        <v>15.37067044243793</v>
+        <v>15.37067044243792</v>
       </c>
       <c r="M33" t="n">
-        <v>17.93684741863729</v>
+        <v>17.93684741863728</v>
       </c>
       <c r="N33" t="n">
-        <v>18.41158239705336</v>
+        <v>18.41158239705335</v>
       </c>
       <c r="O33" t="n">
-        <v>16.84300089871589</v>
+        <v>16.84300089871588</v>
       </c>
       <c r="P33" t="n">
-        <v>13.5179931264087</v>
+        <v>13.51799312640869</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.036420413225198</v>
+        <v>9.036420413225194</v>
       </c>
       <c r="R33" t="n">
-        <v>4.395257262562395</v>
+        <v>4.395257262562393</v>
       </c>
       <c r="S33" t="n">
-        <v>1.314913429425807</v>
+        <v>1.314913429425806</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2853377666215624</v>
+        <v>0.2853377666215623</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004657308486750207</v>
+        <v>0.004657308486750204</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05934887098962555</v>
+        <v>0.05934887098962553</v>
       </c>
       <c r="H34" t="n">
-        <v>0.527665416616853</v>
+        <v>0.5276654166168527</v>
       </c>
       <c r="I34" t="n">
         <v>1.784782411215285</v>
       </c>
       <c r="J34" t="n">
-        <v>4.195965178966526</v>
+        <v>4.195965178966524</v>
       </c>
       <c r="K34" t="n">
-        <v>6.895259738612858</v>
+        <v>6.895259738612855</v>
       </c>
       <c r="L34" t="n">
-        <v>8.823558510584876</v>
+        <v>8.823558510584872</v>
       </c>
       <c r="M34" t="n">
-        <v>9.303205295219211</v>
+        <v>9.303205295219207</v>
       </c>
       <c r="N34" t="n">
-        <v>9.08199586698516</v>
+        <v>9.081995866985157</v>
       </c>
       <c r="O34" t="n">
-        <v>8.388693146788167</v>
+        <v>8.388693146788164</v>
       </c>
       <c r="P34" t="n">
-        <v>7.1779761785998</v>
+        <v>7.177976178599797</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.969658642594918</v>
+        <v>4.969658642594916</v>
       </c>
       <c r="R34" t="n">
-        <v>2.66854105376989</v>
+        <v>2.668541053769889</v>
       </c>
       <c r="S34" t="n">
-        <v>1.034288960791929</v>
+        <v>1.034288960791928</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2535815396829454</v>
+        <v>0.2535815396829453</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00323721114488867</v>
+        <v>0.003237211144888669</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1323081271947796</v>
+        <v>0.1323081271947795</v>
       </c>
       <c r="H35" t="n">
-        <v>1.355000607633537</v>
+        <v>1.355000607633536</v>
       </c>
       <c r="I35" t="n">
-        <v>5.100809073676745</v>
+        <v>5.100809073676743</v>
       </c>
       <c r="J35" t="n">
         <v>11.22948691049793</v>
       </c>
       <c r="K35" t="n">
-        <v>16.83008993465296</v>
+        <v>16.83008993465295</v>
       </c>
       <c r="L35" t="n">
         <v>20.87921478229019</v>
       </c>
       <c r="M35" t="n">
-        <v>23.23214943929036</v>
+        <v>23.23214943929035</v>
       </c>
       <c r="N35" t="n">
-        <v>23.60806990568253</v>
+        <v>23.60806990568252</v>
       </c>
       <c r="O35" t="n">
         <v>22.29243096588943</v>
       </c>
       <c r="P35" t="n">
-        <v>19.02607407576831</v>
+        <v>19.0260740757683</v>
       </c>
       <c r="Q35" t="n">
         <v>14.28778927060526</v>
       </c>
       <c r="R35" t="n">
-        <v>8.31110039489908</v>
+        <v>8.311100394899077</v>
       </c>
       <c r="S35" t="n">
-        <v>3.014971448451043</v>
+        <v>3.014971448451041</v>
       </c>
       <c r="T35" t="n">
-        <v>0.5791788267951479</v>
+        <v>0.5791788267951476</v>
       </c>
       <c r="U35" t="n">
         <v>0.01058465017558236</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0707910889986031</v>
+        <v>0.07079108899860308</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6836928858549302</v>
+        <v>0.6836928858549298</v>
       </c>
       <c r="I36" t="n">
-        <v>2.437324774732607</v>
+        <v>2.437324774732606</v>
       </c>
       <c r="J36" t="n">
-        <v>6.688205474205745</v>
+        <v>6.688205474205742</v>
       </c>
       <c r="K36" t="n">
         <v>11.43120843711215</v>
       </c>
       <c r="L36" t="n">
-        <v>15.37067044243793</v>
+        <v>15.37067044243792</v>
       </c>
       <c r="M36" t="n">
-        <v>17.93684741863729</v>
+        <v>17.93684741863728</v>
       </c>
       <c r="N36" t="n">
-        <v>18.41158239705336</v>
+        <v>18.41158239705335</v>
       </c>
       <c r="O36" t="n">
-        <v>16.84300089871589</v>
+        <v>16.84300089871588</v>
       </c>
       <c r="P36" t="n">
-        <v>13.5179931264087</v>
+        <v>13.51799312640869</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.036420413225198</v>
+        <v>9.036420413225194</v>
       </c>
       <c r="R36" t="n">
-        <v>4.395257262562395</v>
+        <v>4.395257262562393</v>
       </c>
       <c r="S36" t="n">
-        <v>1.314913429425807</v>
+        <v>1.314913429425806</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2853377666215624</v>
+        <v>0.2853377666215623</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004657308486750207</v>
+        <v>0.004657308486750204</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05934887098962555</v>
+        <v>0.05934887098962553</v>
       </c>
       <c r="H37" t="n">
-        <v>0.527665416616853</v>
+        <v>0.5276654166168527</v>
       </c>
       <c r="I37" t="n">
         <v>1.784782411215285</v>
       </c>
       <c r="J37" t="n">
-        <v>4.195965178966526</v>
+        <v>4.195965178966524</v>
       </c>
       <c r="K37" t="n">
-        <v>6.895259738612858</v>
+        <v>6.895259738612855</v>
       </c>
       <c r="L37" t="n">
-        <v>8.823558510584876</v>
+        <v>8.823558510584872</v>
       </c>
       <c r="M37" t="n">
-        <v>9.303205295219211</v>
+        <v>9.303205295219207</v>
       </c>
       <c r="N37" t="n">
-        <v>9.08199586698516</v>
+        <v>9.081995866985157</v>
       </c>
       <c r="O37" t="n">
-        <v>8.388693146788167</v>
+        <v>8.388693146788164</v>
       </c>
       <c r="P37" t="n">
-        <v>7.1779761785998</v>
+        <v>7.177976178599797</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.969658642594918</v>
+        <v>4.969658642594916</v>
       </c>
       <c r="R37" t="n">
-        <v>2.66854105376989</v>
+        <v>2.668541053769889</v>
       </c>
       <c r="S37" t="n">
-        <v>1.034288960791929</v>
+        <v>1.034288960791928</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2535815396829454</v>
+        <v>0.2535815396829453</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00323721114488867</v>
+        <v>0.003237211144888669</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1323081271947796</v>
+        <v>0.1323081271947795</v>
       </c>
       <c r="H38" t="n">
-        <v>1.355000607633537</v>
+        <v>1.355000607633536</v>
       </c>
       <c r="I38" t="n">
-        <v>5.100809073676745</v>
+        <v>5.100809073676743</v>
       </c>
       <c r="J38" t="n">
         <v>11.22948691049793</v>
       </c>
       <c r="K38" t="n">
-        <v>16.83008993465296</v>
+        <v>16.83008993465295</v>
       </c>
       <c r="L38" t="n">
         <v>20.87921478229019</v>
       </c>
       <c r="M38" t="n">
-        <v>23.23214943929036</v>
+        <v>23.23214943929035</v>
       </c>
       <c r="N38" t="n">
-        <v>23.60806990568253</v>
+        <v>23.60806990568252</v>
       </c>
       <c r="O38" t="n">
         <v>22.29243096588943</v>
       </c>
       <c r="P38" t="n">
-        <v>19.02607407576831</v>
+        <v>19.0260740757683</v>
       </c>
       <c r="Q38" t="n">
         <v>14.28778927060526</v>
       </c>
       <c r="R38" t="n">
-        <v>8.31110039489908</v>
+        <v>8.311100394899077</v>
       </c>
       <c r="S38" t="n">
-        <v>3.014971448451043</v>
+        <v>3.014971448451041</v>
       </c>
       <c r="T38" t="n">
-        <v>0.5791788267951479</v>
+        <v>0.5791788267951476</v>
       </c>
       <c r="U38" t="n">
         <v>0.01058465017558236</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0707910889986031</v>
+        <v>0.07079108899860308</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6836928858549302</v>
+        <v>0.6836928858549298</v>
       </c>
       <c r="I39" t="n">
-        <v>2.437324774732607</v>
+        <v>2.437324774732606</v>
       </c>
       <c r="J39" t="n">
-        <v>6.688205474205745</v>
+        <v>6.688205474205742</v>
       </c>
       <c r="K39" t="n">
         <v>11.43120843711215</v>
       </c>
       <c r="L39" t="n">
-        <v>15.37067044243793</v>
+        <v>15.37067044243792</v>
       </c>
       <c r="M39" t="n">
-        <v>17.93684741863729</v>
+        <v>17.93684741863728</v>
       </c>
       <c r="N39" t="n">
-        <v>18.41158239705336</v>
+        <v>18.41158239705335</v>
       </c>
       <c r="O39" t="n">
-        <v>16.84300089871589</v>
+        <v>16.84300089871588</v>
       </c>
       <c r="P39" t="n">
-        <v>13.5179931264087</v>
+        <v>13.51799312640869</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.036420413225198</v>
+        <v>9.036420413225194</v>
       </c>
       <c r="R39" t="n">
-        <v>4.395257262562395</v>
+        <v>4.395257262562393</v>
       </c>
       <c r="S39" t="n">
-        <v>1.314913429425807</v>
+        <v>1.314913429425806</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2853377666215624</v>
+        <v>0.2853377666215623</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004657308486750207</v>
+        <v>0.004657308486750204</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05934887098962555</v>
+        <v>0.05934887098962553</v>
       </c>
       <c r="H40" t="n">
-        <v>0.527665416616853</v>
+        <v>0.5276654166168527</v>
       </c>
       <c r="I40" t="n">
         <v>1.784782411215285</v>
       </c>
       <c r="J40" t="n">
-        <v>4.195965178966526</v>
+        <v>4.195965178966524</v>
       </c>
       <c r="K40" t="n">
-        <v>6.895259738612858</v>
+        <v>6.895259738612855</v>
       </c>
       <c r="L40" t="n">
-        <v>8.823558510584876</v>
+        <v>8.823558510584872</v>
       </c>
       <c r="M40" t="n">
-        <v>9.303205295219211</v>
+        <v>9.303205295219207</v>
       </c>
       <c r="N40" t="n">
-        <v>9.08199586698516</v>
+        <v>9.081995866985157</v>
       </c>
       <c r="O40" t="n">
-        <v>8.388693146788167</v>
+        <v>8.388693146788164</v>
       </c>
       <c r="P40" t="n">
-        <v>7.1779761785998</v>
+        <v>7.177976178599797</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.969658642594918</v>
+        <v>4.969658642594916</v>
       </c>
       <c r="R40" t="n">
-        <v>2.66854105376989</v>
+        <v>2.668541053769889</v>
       </c>
       <c r="S40" t="n">
-        <v>1.034288960791929</v>
+        <v>1.034288960791928</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2535815396829454</v>
+        <v>0.2535815396829453</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00323721114488867</v>
+        <v>0.003237211144888669</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1323081271947796</v>
+        <v>0.1323081271947795</v>
       </c>
       <c r="H41" t="n">
-        <v>1.355000607633537</v>
+        <v>1.355000607633536</v>
       </c>
       <c r="I41" t="n">
-        <v>5.100809073676745</v>
+        <v>5.100809073676743</v>
       </c>
       <c r="J41" t="n">
         <v>11.22948691049793</v>
       </c>
       <c r="K41" t="n">
-        <v>16.83008993465296</v>
+        <v>16.83008993465295</v>
       </c>
       <c r="L41" t="n">
         <v>20.87921478229019</v>
       </c>
       <c r="M41" t="n">
-        <v>23.23214943929036</v>
+        <v>23.23214943929035</v>
       </c>
       <c r="N41" t="n">
-        <v>23.60806990568253</v>
+        <v>23.60806990568252</v>
       </c>
       <c r="O41" t="n">
         <v>22.29243096588943</v>
       </c>
       <c r="P41" t="n">
-        <v>19.02607407576831</v>
+        <v>19.0260740757683</v>
       </c>
       <c r="Q41" t="n">
         <v>14.28778927060526</v>
       </c>
       <c r="R41" t="n">
-        <v>8.31110039489908</v>
+        <v>8.311100394899077</v>
       </c>
       <c r="S41" t="n">
-        <v>3.014971448451043</v>
+        <v>3.014971448451041</v>
       </c>
       <c r="T41" t="n">
-        <v>0.5791788267951479</v>
+        <v>0.5791788267951476</v>
       </c>
       <c r="U41" t="n">
         <v>0.01058465017558236</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0707910889986031</v>
+        <v>0.07079108899860308</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6836928858549302</v>
+        <v>0.6836928858549298</v>
       </c>
       <c r="I42" t="n">
-        <v>2.437324774732607</v>
+        <v>2.437324774732606</v>
       </c>
       <c r="J42" t="n">
-        <v>6.688205474205745</v>
+        <v>6.688205474205742</v>
       </c>
       <c r="K42" t="n">
         <v>11.43120843711215</v>
       </c>
       <c r="L42" t="n">
-        <v>15.37067044243793</v>
+        <v>15.37067044243792</v>
       </c>
       <c r="M42" t="n">
-        <v>17.93684741863729</v>
+        <v>17.93684741863728</v>
       </c>
       <c r="N42" t="n">
-        <v>18.41158239705336</v>
+        <v>18.41158239705335</v>
       </c>
       <c r="O42" t="n">
-        <v>16.84300089871589</v>
+        <v>16.84300089871588</v>
       </c>
       <c r="P42" t="n">
-        <v>13.5179931264087</v>
+        <v>13.51799312640869</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.036420413225198</v>
+        <v>9.036420413225194</v>
       </c>
       <c r="R42" t="n">
-        <v>4.395257262562395</v>
+        <v>4.395257262562393</v>
       </c>
       <c r="S42" t="n">
-        <v>1.314913429425807</v>
+        <v>1.314913429425806</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2853377666215624</v>
+        <v>0.2853377666215623</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004657308486750207</v>
+        <v>0.004657308486750204</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05934887098962555</v>
+        <v>0.05934887098962553</v>
       </c>
       <c r="H43" t="n">
-        <v>0.527665416616853</v>
+        <v>0.5276654166168527</v>
       </c>
       <c r="I43" t="n">
         <v>1.784782411215285</v>
       </c>
       <c r="J43" t="n">
-        <v>4.195965178966526</v>
+        <v>4.195965178966524</v>
       </c>
       <c r="K43" t="n">
-        <v>6.895259738612858</v>
+        <v>6.895259738612855</v>
       </c>
       <c r="L43" t="n">
-        <v>8.823558510584876</v>
+        <v>8.823558510584872</v>
       </c>
       <c r="M43" t="n">
-        <v>9.303205295219211</v>
+        <v>9.303205295219207</v>
       </c>
       <c r="N43" t="n">
-        <v>9.08199586698516</v>
+        <v>9.081995866985157</v>
       </c>
       <c r="O43" t="n">
-        <v>8.388693146788167</v>
+        <v>8.388693146788164</v>
       </c>
       <c r="P43" t="n">
-        <v>7.1779761785998</v>
+        <v>7.177976178599797</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.969658642594918</v>
+        <v>4.969658642594916</v>
       </c>
       <c r="R43" t="n">
-        <v>2.66854105376989</v>
+        <v>2.668541053769889</v>
       </c>
       <c r="S43" t="n">
-        <v>1.034288960791929</v>
+        <v>1.034288960791928</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2535815396829454</v>
+        <v>0.2535815396829453</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00323721114488867</v>
+        <v>0.003237211144888669</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1323081271947796</v>
+        <v>0.1323081271947795</v>
       </c>
       <c r="H44" t="n">
-        <v>1.355000607633537</v>
+        <v>1.355000607633536</v>
       </c>
       <c r="I44" t="n">
-        <v>5.100809073676745</v>
+        <v>5.100809073676743</v>
       </c>
       <c r="J44" t="n">
         <v>11.22948691049793</v>
       </c>
       <c r="K44" t="n">
-        <v>16.83008993465296</v>
+        <v>16.83008993465295</v>
       </c>
       <c r="L44" t="n">
         <v>20.87921478229019</v>
       </c>
       <c r="M44" t="n">
-        <v>23.23214943929036</v>
+        <v>23.23214943929035</v>
       </c>
       <c r="N44" t="n">
-        <v>23.60806990568253</v>
+        <v>23.60806990568252</v>
       </c>
       <c r="O44" t="n">
         <v>22.29243096588943</v>
       </c>
       <c r="P44" t="n">
-        <v>19.02607407576831</v>
+        <v>19.0260740757683</v>
       </c>
       <c r="Q44" t="n">
         <v>14.28778927060526</v>
       </c>
       <c r="R44" t="n">
-        <v>8.31110039489908</v>
+        <v>8.311100394899077</v>
       </c>
       <c r="S44" t="n">
-        <v>3.014971448451043</v>
+        <v>3.014971448451041</v>
       </c>
       <c r="T44" t="n">
-        <v>0.5791788267951479</v>
+        <v>0.5791788267951476</v>
       </c>
       <c r="U44" t="n">
         <v>0.01058465017558236</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0707910889986031</v>
+        <v>0.07079108899860308</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6836928858549302</v>
+        <v>0.6836928858549298</v>
       </c>
       <c r="I45" t="n">
-        <v>2.437324774732607</v>
+        <v>2.437324774732606</v>
       </c>
       <c r="J45" t="n">
-        <v>6.688205474205745</v>
+        <v>6.688205474205742</v>
       </c>
       <c r="K45" t="n">
         <v>11.43120843711215</v>
       </c>
       <c r="L45" t="n">
-        <v>15.37067044243793</v>
+        <v>15.37067044243792</v>
       </c>
       <c r="M45" t="n">
-        <v>17.93684741863729</v>
+        <v>17.93684741863728</v>
       </c>
       <c r="N45" t="n">
-        <v>18.41158239705336</v>
+        <v>18.41158239705335</v>
       </c>
       <c r="O45" t="n">
-        <v>16.84300089871589</v>
+        <v>16.84300089871588</v>
       </c>
       <c r="P45" t="n">
-        <v>13.5179931264087</v>
+        <v>13.51799312640869</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.036420413225198</v>
+        <v>9.036420413225194</v>
       </c>
       <c r="R45" t="n">
-        <v>4.395257262562395</v>
+        <v>4.395257262562393</v>
       </c>
       <c r="S45" t="n">
-        <v>1.314913429425807</v>
+        <v>1.314913429425806</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2853377666215624</v>
+        <v>0.2853377666215623</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004657308486750207</v>
+        <v>0.004657308486750204</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05934887098962555</v>
+        <v>0.05934887098962553</v>
       </c>
       <c r="H46" t="n">
-        <v>0.527665416616853</v>
+        <v>0.5276654166168527</v>
       </c>
       <c r="I46" t="n">
         <v>1.784782411215285</v>
       </c>
       <c r="J46" t="n">
-        <v>4.195965178966526</v>
+        <v>4.195965178966524</v>
       </c>
       <c r="K46" t="n">
-        <v>6.895259738612858</v>
+        <v>6.895259738612855</v>
       </c>
       <c r="L46" t="n">
-        <v>8.823558510584876</v>
+        <v>8.823558510584872</v>
       </c>
       <c r="M46" t="n">
-        <v>9.303205295219211</v>
+        <v>9.303205295219207</v>
       </c>
       <c r="N46" t="n">
-        <v>9.08199586698516</v>
+        <v>9.081995866985157</v>
       </c>
       <c r="O46" t="n">
-        <v>8.388693146788167</v>
+        <v>8.388693146788164</v>
       </c>
       <c r="P46" t="n">
-        <v>7.1779761785998</v>
+        <v>7.177976178599797</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.969658642594918</v>
+        <v>4.969658642594916</v>
       </c>
       <c r="R46" t="n">
-        <v>2.66854105376989</v>
+        <v>2.668541053769889</v>
       </c>
       <c r="S46" t="n">
-        <v>1.034288960791929</v>
+        <v>1.034288960791928</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2535815396829454</v>
+        <v>0.2535815396829453</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00323721114488867</v>
+        <v>0.003237211144888669</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>117.1778397212393</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34713,7 +34713,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>591.4121262692951</v>
       </c>
-      <c r="N3" t="n">
-        <v>414.9454010832019</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>151.5096066346806</v>
       </c>
       <c r="N5" t="n">
-        <v>162.9211284231314</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.9647617065632</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>98.29687095180005</v>
       </c>
       <c r="M8" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>66.19388044736931</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>120.9457632719102</v>
       </c>
       <c r="K12" t="n">
-        <v>334.4000428434015</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>503.821262258916</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>28.99008197159835</v>
+        <v>652.0496248193253</v>
       </c>
       <c r="N12" t="n">
-        <v>680.8135735188303</v>
+        <v>351.7930251161146</v>
       </c>
       <c r="O12" t="n">
         <v>538.580660081525</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.236547385396</v>
       </c>
       <c r="Q12" t="n">
         <v>245.7688361252358</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>120.9457632719102</v>
       </c>
       <c r="K15" t="n">
-        <v>185.9224135548398</v>
+        <v>334.4000428434015</v>
       </c>
       <c r="L15" t="n">
         <v>503.821262258916</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>165.6213448331224</v>
       </c>
       <c r="N15" t="n">
-        <v>680.8135735188303</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>538.580660081525</v>
@@ -35746,7 +35746,7 @@
         <v>423.236547385396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>245.7688361252358</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>120.9457632719102</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>334.4000428434015</v>
       </c>
       <c r="L18" t="n">
-        <v>215.1617622545904</v>
+        <v>503.821262258916</v>
       </c>
       <c r="M18" t="n">
-        <v>652.0496248193253</v>
+        <v>411.3901809583584</v>
       </c>
       <c r="N18" t="n">
-        <v>680.8135735188303</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>538.580660081525</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.236547385396</v>
       </c>
       <c r="Q18" t="n">
-        <v>245.7688361252358</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>519.1825397505012</v>
       </c>
       <c r="M20" t="n">
-        <v>574.7482100903819</v>
+        <v>574.7482100903818</v>
       </c>
       <c r="N20" t="n">
         <v>556.7507806505937</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.9457632719102</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>334.4000428434015</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>503.821262258916</v>
       </c>
       <c r="M21" t="n">
-        <v>443.9748396885199</v>
+        <v>411.3901809583584</v>
       </c>
       <c r="N21" t="n">
-        <v>680.8135735188303</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>538.580660081525</v>
@@ -36220,7 +36220,7 @@
         <v>423.236547385396</v>
       </c>
       <c r="Q21" t="n">
-        <v>245.7688361252358</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>219.5719424986253</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.73335283481477</v>
+        <v>99.73335283481475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>120.9457632719102</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>334.4000428434015</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0496248193253</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>472.7387883880247</v>
+        <v>669.4426070920384</v>
       </c>
       <c r="O24" t="n">
         <v>538.580660081525</v>
@@ -36518,7 +36518,7 @@
         <v>65.42840788887482</v>
       </c>
       <c r="K25" t="n">
-        <v>180.8638476074902</v>
+        <v>180.8638476074909</v>
       </c>
       <c r="L25" t="n">
         <v>265.9159835146722</v>
@@ -36536,7 +36536,7 @@
         <v>219.5719424986253</v>
       </c>
       <c r="Q25" t="n">
-        <v>99.73335283481477</v>
+        <v>99.73335283481475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>120.9457632719102</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>334.4000428434015</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>503.821262258916</v>
       </c>
       <c r="M27" t="n">
-        <v>652.0496248193253</v>
+        <v>165.6213448331224</v>
       </c>
       <c r="N27" t="n">
-        <v>680.8135735188303</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>330.5058749507195</v>
+        <v>538.580660081525</v>
       </c>
       <c r="P27" t="n">
         <v>423.236547385396</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>36.12652370644066</v>
+        <v>36.12652370644018</v>
       </c>
       <c r="K28" t="n">
-        <v>151.561963425056</v>
+        <v>151.5619634250556</v>
       </c>
       <c r="L28" t="n">
-        <v>236.6140993322381</v>
+        <v>236.6140993322376</v>
       </c>
       <c r="M28" t="n">
-        <v>259.4815627476444</v>
+        <v>259.4815627476439</v>
       </c>
       <c r="N28" t="n">
-        <v>256.1270762415772</v>
+        <v>256.1270762415767</v>
       </c>
       <c r="O28" t="n">
-        <v>234.7419886835002</v>
+        <v>234.7419886834998</v>
       </c>
       <c r="P28" t="n">
-        <v>190.2700583161912</v>
+        <v>190.2700583161907</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.43146865238062</v>
+        <v>70.43146865238012</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>120.9457632719102</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>334.4000428434015</v>
       </c>
       <c r="L30" t="n">
         <v>503.821262258916</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>165.6213448331224</v>
       </c>
       <c r="N30" t="n">
-        <v>680.8135735188303</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>538.580660081525</v>
       </c>
       <c r="P30" t="n">
-        <v>363.3901248149997</v>
+        <v>423.236547385396</v>
       </c>
       <c r="Q30" t="n">
         <v>245.7688361252358</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>36.12652370644066</v>
+        <v>36.12652370644062</v>
       </c>
       <c r="K31" t="n">
         <v>151.561963425056</v>
       </c>
       <c r="L31" t="n">
-        <v>236.6140993322381</v>
+        <v>236.614099332238</v>
       </c>
       <c r="M31" t="n">
-        <v>259.4815627476444</v>
+        <v>259.4815627476443</v>
       </c>
       <c r="N31" t="n">
-        <v>256.1270762415772</v>
+        <v>256.1270762415771</v>
       </c>
       <c r="O31" t="n">
         <v>234.7419886835002</v>
       </c>
       <c r="P31" t="n">
-        <v>190.2700583161912</v>
+        <v>190.2700583161911</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.43146865238062</v>
+        <v>70.43146865238056</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>120.9457632719102</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>334.4000428434015</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>503.821262258916</v>
       </c>
       <c r="M33" t="n">
-        <v>652.0496248193253</v>
+        <v>165.6213448331224</v>
       </c>
       <c r="N33" t="n">
-        <v>472.7387883880247</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>538.580660081525</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.42840788887486</v>
+        <v>65.42840788887483</v>
       </c>
       <c r="K34" t="n">
         <v>180.8638476074902</v>
@@ -37244,10 +37244,10 @@
         <v>264.0438728659344</v>
       </c>
       <c r="P34" t="n">
-        <v>219.5719424986254</v>
+        <v>219.5719424986253</v>
       </c>
       <c r="Q34" t="n">
-        <v>99.73335283481481</v>
+        <v>99.73335283481478</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>120.9457632719102</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>334.4000428434015</v>
       </c>
       <c r="L36" t="n">
         <v>503.821262258916</v>
       </c>
       <c r="M36" t="n">
-        <v>620.9671509484341</v>
+        <v>165.6213448331224</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.42840788887486</v>
+        <v>65.42840788887483</v>
       </c>
       <c r="K37" t="n">
         <v>180.8638476074902</v>
@@ -37481,10 +37481,10 @@
         <v>264.0438728659344</v>
       </c>
       <c r="P37" t="n">
-        <v>219.5719424986254</v>
+        <v>219.5719424986253</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.73335283481481</v>
+        <v>99.73335283481478</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>120.9457632719102</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>334.4000428434015</v>
       </c>
       <c r="L39" t="n">
-        <v>215.1617622545905</v>
+        <v>503.821262258916</v>
       </c>
       <c r="M39" t="n">
-        <v>652.0496248193253</v>
+        <v>165.6213448331224</v>
       </c>
       <c r="N39" t="n">
-        <v>680.8135735188303</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>538.580660081525</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.236547385396</v>
       </c>
       <c r="Q39" t="n">
         <v>245.7688361252358</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.42840788887486</v>
+        <v>65.42840788887483</v>
       </c>
       <c r="K40" t="n">
         <v>180.8638476074902</v>
       </c>
       <c r="L40" t="n">
-        <v>265.9159835146723</v>
+        <v>265.9159835146722</v>
       </c>
       <c r="M40" t="n">
-        <v>288.7834469300786</v>
+        <v>288.7834469300787</v>
       </c>
       <c r="N40" t="n">
         <v>285.4289604240113</v>
@@ -37718,10 +37718,10 @@
         <v>264.0438728659344</v>
       </c>
       <c r="P40" t="n">
-        <v>219.5719424986254</v>
+        <v>219.5719424986253</v>
       </c>
       <c r="Q40" t="n">
-        <v>99.73335283481481</v>
+        <v>99.73335283481478</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>503.821262258916</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>165.6213448331224</v>
       </c>
       <c r="N42" t="n">
-        <v>680.8135735188303</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>269.1572675210531</v>
+        <v>538.580660081525</v>
       </c>
       <c r="P42" t="n">
         <v>423.236547385396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>245.7688361252358</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.423361889241656</v>
+        <v>3.423361889242095</v>
       </c>
       <c r="K43" t="n">
-        <v>118.858801607857</v>
+        <v>118.8588016078575</v>
       </c>
       <c r="L43" t="n">
-        <v>203.9109375150391</v>
+        <v>203.9109375150395</v>
       </c>
       <c r="M43" t="n">
-        <v>226.7784009304454</v>
+        <v>226.7784009304458</v>
       </c>
       <c r="N43" t="n">
-        <v>223.4239144243782</v>
+        <v>223.4239144243786</v>
       </c>
       <c r="O43" t="n">
-        <v>202.0388268663012</v>
+        <v>202.0388268663017</v>
       </c>
       <c r="P43" t="n">
-        <v>157.5668964989922</v>
+        <v>157.5668964989926</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.7283068351816</v>
+        <v>37.72830683518204</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>379.4385303664326</v>
       </c>
       <c r="L44" t="n">
-        <v>519.1825397505012</v>
+        <v>519.1825397505017</v>
       </c>
       <c r="M44" t="n">
         <v>574.7482100903818</v>
@@ -38104,7 +38104,7 @@
         <v>503.821262258916</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0496248193253</v>
+        <v>165.6213448331224</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>538.580660081525</v>
       </c>
       <c r="P45" t="n">
-        <v>182.5771035244295</v>
+        <v>423.236547385396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>245.7688361252358</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.423361889241656</v>
+        <v>3.423361889241654</v>
       </c>
       <c r="K46" t="n">
         <v>118.858801607857</v>
